--- a/Data/MAIN_DATA_FILE.xlsx
+++ b/Data/MAIN_DATA_FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolantav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E93D0A-A20B-4355-8DC8-5EE95916D9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447809B-BAD0-4A45-86E1-9D067B8AE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" tabRatio="914" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -458,7 +458,7 @@
     <numFmt numFmtId="168" formatCode="#0.000"/>
     <numFmt numFmtId="169" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -496,7 +496,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -800,9 +800,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>5857978</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -970,7 +970,7 @@
         <v>6059897</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>6059897</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>5708860</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>5952555</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>5585851</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>6040156</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>5611697</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>5611697</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>5259397</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>5716639</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>5318427</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1389065</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1420397</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>1420397</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1326400</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1423879</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1314216</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>85322</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>76909</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>76909</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>74820</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>90516</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>73979</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>16087</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>14571</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>14571</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>14049</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>16543</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -2549,9 +2549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2588,9 +2588,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>128</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>128</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>128</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>128</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>128</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>128</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>128</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>128</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>128</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>128</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>128</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>128</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>128</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>128</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>128</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>128</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>128</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>128</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>128</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>128</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>128</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>128</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>128</v>
       </c>
@@ -7151,9 +7151,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -7346,9 +7346,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>857.83069999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>805.30949999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>805.30949999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>556.43349999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>6360.8798999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>5844.5888000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>5758.0366000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>5220.0447999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>5220.0447999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>3877.0077000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>3326.8465000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>3755.8728999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>2446.6104999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>2360.2145</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>2360.2145</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>3700.9425000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1103.3389999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>3538.2548000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>157.9794</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>229.08629999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>229.08629999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>308.8956</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>2428.4416999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>2856.1984000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>2034.5162</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1880.6876999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>1880.6876999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>2304.2213000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>1418.8416</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>1769.1315999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>4167.3869999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>3875.0300999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>3875.0300999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>3443.2374</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>2134.3492999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -10208,9 +10208,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>12944.397499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>10381.2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>8654.8163000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>8797.1162999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>8797.1162999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>8683.2186000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>145171.73430000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>132654.20480000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>156266.19940000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>145500.89319999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>145500.89319999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>137239.86230000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>83.248099999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>16.051100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>6044.6253999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>5444.3622999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>6519.0657000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>6080.5290000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>6080.5290000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>6039.4964</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>6669.7326000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>6240.1718000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>6240.1718000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>6358.1406999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>67710.320099999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>69101.584199999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>69101.584199999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>64966.260199999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>68543.796300000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>63869.9185</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>148.74340000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>74.371700000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>4863.0127000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -11181,16 +11181,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>307616.19189999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>524632.15249999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>1024974.6192</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1173483.1459999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1173483.1459999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>819916.6666</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>281497.3714</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>490165.98930000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>1246703.7124999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>1068678.895</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>1068678.895</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>722260.39839999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>623.05989999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>564.72260000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>4661.1570000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>2683.2386000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>3422.8395</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>2774.8618000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>2774.8618000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>2316.9856</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>18613.923999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>14893.258400000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>14893.258400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>11830.2752</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>256042.7807</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>201409.69159999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>861052.63150000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>308163.26530000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>65217.391300000003</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -12496,9 +12496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -12909,9 +12909,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>11526.643599999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>11533.2065</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>11533.2065</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>11334.2238</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>10586.8572</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -13020,9 +13020,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>82756.125799999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>82756.125799999994</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>82756.125799999994</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>82756.125799999994</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>83583.443400000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>82756.125799999994</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>19820.227599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>19820.227599999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>19820.227599999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>19820.227599999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>19612.4771</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>19820.227599999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>126607.9892</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>126607.9892</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>126607.9892</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>126607.9892</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>129196.67479999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -13983,9 +13983,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>78</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>78</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>78</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>78</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>78</v>
       </c>
@@ -18273,9 +18273,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>857.83069999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>805.30949999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>805.30949999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>556.43349999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>6360.8798999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>5844.5888000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>5758.0366000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>5220.0447999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>5220.0447999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>3877.0077000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>3326.8465000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>3755.8728999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>2446.6104999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>2360.2145</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>2360.2145</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>3700.9425000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>1103.3389999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>3538.2548000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>157.9794</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>229.08629999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>229.08629999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>308.8956</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>2428.4416999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>2856.1984000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>2034.5162</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>1880.6876999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>1880.6876999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>2304.2213000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>1418.8416</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>1769.1315999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>4167.3869999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>3875.0300999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>3875.0300999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>3443.2374</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>2134.3492999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -21022,11 +21022,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -21061,7 +21071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -21094,7 +21104,7 @@
         <v>0.29420000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -21127,7 +21137,7 @@
         <v>0.19769999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -21160,7 +21170,7 @@
         <v>0.19769999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -21193,7 +21203,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -21226,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -21259,7 +21269,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -21288,7 +21298,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -21317,7 +21327,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -21346,7 +21356,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -21375,7 +21385,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -21404,7 +21414,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -21433,7 +21443,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -21468,7 +21478,7 @@
         <v>1.1194999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -21503,7 +21513,7 @@
         <v>1.3832</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -21538,7 +21548,7 @@
         <v>1.3832</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -21573,7 +21583,7 @@
         <v>0.64649999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -21608,7 +21618,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>111</v>
       </c>

--- a/Data/MAIN_DATA_FILE.xlsx
+++ b/Data/MAIN_DATA_FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447809B-BAD0-4A45-86E1-9D067B8AE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48EB8DC-6F2D-43C0-9274-9DDAF57956B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="132">
   <si>
     <t>Component</t>
   </si>
@@ -10204,971 +10204,1088 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>0.94140000000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>19.3505</v>
       </c>
       <c r="F2" s="3">
         <v>19.3505</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
+        <v>19.3505</v>
+      </c>
+      <c r="H2" s="1">
         <v>160776.1067</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>12944.397499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.94820000000000004</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10.6471</v>
       </c>
       <c r="F3" s="3">
         <v>10.6471</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
+        <v>10.6471</v>
+      </c>
+      <c r="H3" s="1">
         <v>149105.82070000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>10381.2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
         <v>-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.89259999999999995</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.7152000000000003</v>
       </c>
       <c r="F4" s="3">
         <v>5.7152000000000003</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
+        <v>5.7152000000000003</v>
+      </c>
+      <c r="H4" s="1">
         <v>154869.9504</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>8654.8163000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
         <v>-1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.89180000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.1639999999999997</v>
       </c>
       <c r="F5" s="3">
         <v>5.1639999999999997</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="H5" s="1">
         <v>160052.15400000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>8797.1162999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.89180000000000004</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.1639999999999997</v>
       </c>
       <c r="F6" s="3">
         <v>5.1639999999999997</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="H6" s="1">
         <v>160052.15400000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>8797.1162999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.89229999999999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6.9626999999999999</v>
       </c>
       <c r="F7" s="3">
         <v>6.9626999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
+        <v>6.9626999999999999</v>
+      </c>
+      <c r="H7" s="1">
         <v>151176.35500000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>8683.2186000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>0.92169999999999996</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20.3079</v>
       </c>
       <c r="F8" s="3">
         <v>20.3079</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
+        <v>20.3079</v>
+      </c>
+      <c r="H8" s="1">
         <v>316087.81670000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>145171.73430000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>0.9335</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10.850199999999999</v>
       </c>
       <c r="F9" s="3">
         <v>10.850199999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
+        <v>10.850199999999999</v>
+      </c>
+      <c r="H9" s="1">
         <v>291664.52860000002</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>132654.20480000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
         <v>-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>0.88680000000000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.04</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.8449</v>
       </c>
       <c r="F10" s="3">
         <v>4.8449</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
+        <v>4.8449</v>
+      </c>
+      <c r="H10" s="1">
         <v>332034.72970000003</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>156266.19940000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
         <v>-1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>0.88880000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.2510000000000003</v>
       </c>
       <c r="F11" s="3">
         <v>5.2510000000000003</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="H11" s="1">
         <v>308801.2769</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>145500.89319999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.88880000000000003</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5.2510000000000003</v>
       </c>
       <c r="F12" s="3">
         <v>5.2510000000000003</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="H12" s="1">
         <v>308801.2769</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>145500.89319999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>0.93069999999999997</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7.2817999999999996</v>
       </c>
       <c r="F13" s="3">
         <v>7.2817999999999996</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
+        <v>7.2817999999999996</v>
+      </c>
+      <c r="H13" s="1">
         <v>290067.41279999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>137239.86230000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.29010000000000002</v>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0.29010000000000002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="H14" s="1">
         <v>951.61090000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>83.248099999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.8000000000000003E-2</v>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H15" s="1">
         <v>173.46270000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>16.051100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.5103</v>
       </c>
       <c r="F16" s="3">
         <v>3.5103</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
+        <v>3.5103</v>
+      </c>
+      <c r="H16" s="1">
         <v>68941.764500000005</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>6044.6253999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>0.98939999999999995</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>2.7E-2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.1059999999999999</v>
       </c>
       <c r="F17" s="3">
         <v>5.1059999999999999</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="H17" s="1">
         <v>58109.564299999998</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>5444.3622999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
         <v>-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>0.88449999999999995</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.6997999999999998</v>
       </c>
       <c r="F18" s="3">
         <v>4.6997999999999998</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
+        <v>4.6997999999999998</v>
+      </c>
+      <c r="H18" s="1">
         <v>55500.1878</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>6519.0657000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
         <v>-1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>0.89339999999999997</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5.2510000000000003</v>
       </c>
       <c r="F19" s="3">
         <v>5.2510000000000003</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="H19" s="1">
         <v>50446.207199999997</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>6080.5290000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.89339999999999997</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5.2510000000000003</v>
       </c>
       <c r="F20" s="3">
         <v>5.2510000000000003</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="H20" s="1">
         <v>50446.207199999997</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>6080.5290000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>0.92769999999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>5.62E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6.0632999999999999</v>
       </c>
       <c r="F21" s="3">
         <v>6.0632999999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
+        <v>6.0632999999999999</v>
+      </c>
+      <c r="H21" s="1">
         <v>60391.344599999997</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>6039.4964</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
         <v>-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>0.84860000000000002</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.5837000000000003</v>
       </c>
       <c r="F22" s="3">
         <v>4.5837000000000003</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
+        <v>4.5837000000000003</v>
+      </c>
+      <c r="H22" s="1">
         <v>96580.207899999994</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>6669.7326000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
         <v>-1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>0.84230000000000005</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>1.77E-2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.1639999999999997</v>
       </c>
       <c r="F23" s="3">
         <v>5.1639999999999997</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="H23" s="1">
         <v>87284.942299999995</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>6240.1718000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.84230000000000005</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>1.77E-2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5.1639999999999997</v>
       </c>
       <c r="F24" s="3">
         <v>5.1639999999999997</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="H24" s="1">
         <v>87284.942299999995</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>6240.1718000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.92820000000000003</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>1.43E-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6.3243999999999998</v>
       </c>
       <c r="F25" s="3">
         <v>6.3243999999999998</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
+        <v>6.3243999999999998</v>
+      </c>
+      <c r="H25" s="1">
         <v>85615.340200000006</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>6358.1406999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
         <v>-2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>0.97609999999999997</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>1.06E-2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5.4250999999999996</v>
       </c>
       <c r="F28" s="3">
         <v>5.4250999999999996</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
+        <v>5.4250999999999996</v>
+      </c>
+      <c r="H28" s="1">
         <v>721543.18779999996</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>67710.320099999997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
         <v>-1</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>0.98219999999999996</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>1.34E-2</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4.9318999999999997</v>
       </c>
       <c r="F29" s="3">
         <v>4.9318999999999997</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="H29" s="1">
         <v>737682.56160000002</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>69101.584199999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.98219999999999996</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>1.34E-2</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4.9318999999999997</v>
       </c>
       <c r="F30" s="3">
         <v>4.9318999999999997</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="H30" s="1">
         <v>737682.56160000002</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>69101.584199999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>6.5854999999999997</v>
       </c>
       <c r="F31" s="3">
         <v>6.5854999999999997</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
+        <v>6.5854999999999997</v>
+      </c>
+      <c r="H31" s="1">
         <v>689302.90830000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>64966.260199999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>1.83E-2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.6536</v>
       </c>
       <c r="F32" s="3">
         <v>1.6536</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
+        <v>1.6536</v>
+      </c>
+      <c r="H32" s="1">
         <v>738763.45259999996</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>68543.796300000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>0.98670000000000002</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>1.32E-2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4.2645999999999997</v>
       </c>
       <c r="F33" s="3">
         <v>4.2645999999999997</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
+        <v>4.2645999999999997</v>
+      </c>
+      <c r="H33" s="1">
         <v>682471.19050000003</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>63869.9185</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.11600000000000001</v>
+      <c r="E34" s="2">
+        <v>0</v>
       </c>
       <c r="F34" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H34" s="1">
         <v>4899.8154999999997</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>148.74340000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>0.5</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.8000000000000003E-2</v>
+      <c r="E35" s="2">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H35" s="1">
         <v>2432.6749</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>74.371700000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>0.89</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.3345</v>
+      <c r="E36" s="2">
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>1.3345</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
+        <v>1.3345</v>
+      </c>
+      <c r="H36" s="1">
         <v>100495.26</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>4863.0127000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>0.85540000000000005</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2.4079000000000002</v>
+      <c r="E37" s="2">
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>2.4079000000000002</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
+        <v>2.4079000000000002</v>
+      </c>
+      <c r="H37" s="1">
         <v>83807.683199999999</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>4323.6575000000003</v>
       </c>
     </row>
@@ -12494,9 +12611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12907,9 +13036,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -21022,8 +21157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/MAIN_DATA_FILE.xlsx
+++ b/Data/MAIN_DATA_FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48EB8DC-6F2D-43C0-9274-9DDAF57956B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90199258-F10C-43E4-A623-0889E087CBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="132">
   <si>
     <t>Component</t>
   </si>
@@ -796,9 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2536,6 +2538,286 @@
       </c>
       <c r="R31" s="1">
         <v>13733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20.075800000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>155555.19630000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12120.6986</v>
+      </c>
+      <c r="H32" s="1">
+        <v>213266.48620000001</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>286242.7745</v>
+      </c>
+      <c r="K32" s="1">
+        <v>539879</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>14614.093199999999</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.9076000000000004</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.89E-2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5746574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>302040.815</v>
+      </c>
+      <c r="G33" s="1">
+        <v>138892.45319999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>203215.81229999999</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>261240</v>
+      </c>
+      <c r="K33" s="1">
+        <v>520206</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2.5510999999999999</v>
+      </c>
+      <c r="M33" s="1">
+        <v>28793.8701</v>
+      </c>
+      <c r="N33" s="1">
+        <v>5.9531000000000001</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>5456832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.35E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10.5021</v>
+      </c>
+      <c r="F34" s="1">
+        <v>715078.24069999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>97286.771299999993</v>
+      </c>
+      <c r="H34" s="1">
+        <v>51490.515200000002</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>130423.0018</v>
+      </c>
+      <c r="K34" s="1">
+        <v>231310</v>
+      </c>
+      <c r="L34" s="3">
+        <v>4.4737999999999998</v>
+      </c>
+      <c r="M34" s="1">
+        <v>120758.22840000001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>12.906700000000001</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1369718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.4659</v>
+      </c>
+      <c r="F35" s="1">
+        <v>87479.996499999994</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4308.5907999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2844.2896000000001</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>24686</v>
+      </c>
+      <c r="L35" s="3">
+        <v>8.6639999999999997</v>
+      </c>
+      <c r="M35" s="1">
+        <v>29191.079300000001</v>
+      </c>
+      <c r="N35" s="1">
+        <v>17.057500000000001</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>73979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.7477999999999998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>57369.148800000003</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6131.2067999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>511.44099999999997</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4.3075000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1366.2737</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2423</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4.7195</v>
+      </c>
+      <c r="M36" s="1">
+        <v>10435.167100000001</v>
+      </c>
+      <c r="N36" s="1">
+        <v>11.901899999999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="R36" s="1">
+        <v>13318</v>
       </c>
     </row>
   </sheetData>
@@ -2584,9 +2866,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7137,6 +7421,756 @@
         <v>1.0385</v>
       </c>
       <c r="P91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>31419.058199999999</v>
+      </c>
+      <c r="F92" s="1">
+        <v>5695.3954999999996</v>
+      </c>
+      <c r="G92" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.18127199999999999</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1573.4884999999999</v>
+      </c>
+      <c r="J92" s="6">
+        <v>5.0080705199999999E-2</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="O92" s="6">
+        <v>1.5233000000000001</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2185.2265000000002</v>
+      </c>
+      <c r="F93" s="1">
+        <v>577.67550000000006</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.1041</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0.26435500000000001</v>
+      </c>
+      <c r="I93" s="1">
+        <v>105.17870000000001</v>
+      </c>
+      <c r="J93" s="6">
+        <v>4.8131736899999999E-2</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="O93" s="6">
+        <v>2.3582000000000001</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5241.33</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1108.4574</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.21148400000000001</v>
+      </c>
+      <c r="I94" s="1">
+        <v>274.93180000000001</v>
+      </c>
+      <c r="J94" s="6">
+        <v>5.2454586599999999E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O94" s="6">
+        <v>1.6848000000000001</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1">
+        <v>67002.901100000003</v>
+      </c>
+      <c r="F95" s="1">
+        <v>25303.6456</v>
+      </c>
+      <c r="G95" s="2">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0.37764999999999999</v>
+      </c>
+      <c r="I95" s="1">
+        <v>9758.9575000000004</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0.14564977670000001</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2610.3548000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1025.2325000000001</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0.39275599999999999</v>
+      </c>
+      <c r="I96" s="1">
+        <v>108.5933</v>
+      </c>
+      <c r="J96" s="6">
+        <v>4.1600982100000003E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="O96" s="6">
+        <v>1.4621</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>14353.2693</v>
+      </c>
+      <c r="F97" s="1">
+        <v>6504.6145999999999</v>
+      </c>
+      <c r="G97" s="2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0.45318000000000003</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1822.6180999999999</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0.12698279060000001</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="O97" s="6">
+        <v>1.0944</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>60565.909299999999</v>
+      </c>
+      <c r="F98" s="1">
+        <v>10688.187099999999</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.17647199999999999</v>
+      </c>
+      <c r="I98" s="1">
+        <v>2742.4670000000001</v>
+      </c>
+      <c r="J98" s="6">
+        <v>4.52807052E-2</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.8266</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="O98" s="6">
+        <v>1.4596</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1">
+        <v>4181.3344999999999</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1076.0872999999999</v>
+      </c>
+      <c r="G99" s="2">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.257355</v>
+      </c>
+      <c r="I99" s="1">
+        <v>171.9855</v>
+      </c>
+      <c r="J99" s="6">
+        <v>4.11317369E-2</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="N99" s="2">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="O99" s="6">
+        <v>2.2945000000000002</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>10375.9696</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2136.2460999999998</v>
+      </c>
+      <c r="G100" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0.20588400000000001</v>
+      </c>
+      <c r="I100" s="1">
+        <v>486.1617</v>
+      </c>
+      <c r="J100" s="6">
+        <v>4.6854586599999998E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O100" s="6">
+        <v>1.6212</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="1">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="F101" s="1">
+        <v>10108.336300000001</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0.16459199999999999</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2051.2878000000001</v>
+      </c>
+      <c r="J101" s="6">
+        <v>3.3400705199999998E-2</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0.7631</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="O101" s="6">
+        <v>1.4652000000000001</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="F102" s="1">
+        <v>990.41700000000003</v>
+      </c>
+      <c r="G102" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.24002999999999999</v>
+      </c>
+      <c r="I102" s="1">
+        <v>98.231800000000007</v>
+      </c>
+      <c r="J102" s="6">
+        <v>2.38067369E-2</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="O102" s="6">
+        <v>2.3001</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1996.2610999999999</v>
+      </c>
+      <c r="G103" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H103" s="6">
+        <v>0.192024</v>
+      </c>
+      <c r="I103" s="1">
+        <v>343.00819999999999</v>
+      </c>
+      <c r="J103" s="6">
+        <v>3.29945866E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O103" s="6">
+        <v>1.6267</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="F104" s="1">
+        <v>33827.264799999997</v>
+      </c>
+      <c r="G104" s="2">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="I104" s="1">
+        <v>10940.321099999999</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0.11089977669999999</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1320.0600999999999</v>
+      </c>
+      <c r="G105" s="2">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0.35661599999999999</v>
+      </c>
+      <c r="I105" s="1">
+        <v>20.214500000000001</v>
+      </c>
+      <c r="J105" s="6">
+        <v>5.4609821000000001E-3</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0.8528</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="O105" s="6">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>21638.0272</v>
+      </c>
+      <c r="F106" s="1">
+        <v>8903.6154000000006</v>
+      </c>
+      <c r="G106" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.41148000000000001</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1845.3513</v>
+      </c>
+      <c r="J106" s="6">
+        <v>8.5282790600000005E-2</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0.8528</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="O106" s="6">
+        <v>1.0402</v>
+      </c>
+      <c r="P106" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7147,9 +8181,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7332,6 +8368,32 @@
         <v>9104.7878999999994</v>
       </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>236288.7659</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>766.68079999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>524.55579999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9473.1406000000006</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7342,9 +8404,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10195,6 +11259,468 @@
       </c>
       <c r="Y37" s="1">
         <v>5344.3321999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>153399.47330000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>26491.919000000002</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.17269889150000001</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4.1507596799999998E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6367.2434000000003</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.7913</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5.4406999999999996</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.8246</v>
+      </c>
+      <c r="P38" s="3">
+        <v>16596.518100000001</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4.4855999999999998</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="S38" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>99.073800000000006</v>
+      </c>
+      <c r="U38" s="1">
+        <v>13352.047399999999</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="W38" s="1">
+        <v>200.74350000000001</v>
+      </c>
+      <c r="X38" s="6">
+        <v>1.4749000000000001</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>10039.0666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10492.782800000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2644.1799000000001</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.25199987080000003</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3.5776607799999999E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>375.39609999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3.1421000000000001</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.1507</v>
+      </c>
+      <c r="N39" s="1">
+        <v>342.04300000000001</v>
+      </c>
+      <c r="O39" s="3">
+        <v>3.4020999999999999</v>
+      </c>
+      <c r="P39" s="3">
+        <v>7718.7788</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>7.7784000000000004</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.06E-2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>12.881</v>
+      </c>
+      <c r="U39" s="1">
+        <v>2859.4549000000002</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="W39" s="1">
+        <v>29.190200000000001</v>
+      </c>
+      <c r="X39" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>4368.4157999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>26013.1934</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5240.9646000000002</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.2014733289</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4.2443915499999998E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1104.1016999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.9748</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3.5013999999999998</v>
+      </c>
+      <c r="M40" s="2">
+        <v>6.13E-2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>253.79320000000001</v>
+      </c>
+      <c r="O40" s="3">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="P40" s="3">
+        <v>12137.786899999999</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>6.7710999999999997</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="S40" s="2">
+        <v>2.12E-2</v>
+      </c>
+      <c r="T40" s="1">
+        <v>17.4648</v>
+      </c>
+      <c r="U40" s="1">
+        <v>2851.4897000000001</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="W40" s="1">
+        <v>152.90459999999999</v>
+      </c>
+      <c r="X40" s="6">
+        <v>1.6362000000000001</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>4268.2040999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>165653.42550000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>59130.910400000001</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.35695555480000002</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.1249553316</v>
+      </c>
+      <c r="H41" s="1">
+        <v>20699.278699999999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N41" s="1">
+        <v>10.583600000000001</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="P41" s="3">
+        <v>35008.693899999998</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="T41" s="1">
+        <v>103.8317</v>
+      </c>
+      <c r="U41" s="1">
+        <v>7415.2614000000003</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="W41" s="1">
+        <v>501.17250000000001</v>
+      </c>
+      <c r="X41" s="6">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>5707.5886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6311.9839000000002</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2345.2926000000002</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.37156189090000002</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.0406872999999999E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>128.80779999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.7618</v>
+      </c>
+      <c r="M42" s="2">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>213.3656</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2.7128999999999999</v>
+      </c>
+      <c r="P42" s="3">
+        <v>6013.2226000000001</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>6.7579000000000002</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="S42" s="2">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="T42" s="1">
+        <v>15.2889</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1653.5929000000001</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="W42" s="1">
+        <v>177.16300000000001</v>
+      </c>
+      <c r="X42" s="6">
+        <v>1.4303999999999999</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>2598.2280999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>35991.296499999997</v>
+      </c>
+      <c r="E43" s="1">
+        <v>15408.23</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.4281098908</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.1019126814</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3667.9695000000002</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="M43" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>43.398499999999999</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1.3491</v>
+      </c>
+      <c r="P43" s="3">
+        <v>15839.5229</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>5.0366999999999997</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="T43" s="1">
+        <v>38.120899999999999</v>
+      </c>
+      <c r="U43" s="1">
+        <v>3838.7085000000002</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="W43" s="1">
+        <v>417.97430000000003</v>
+      </c>
+      <c r="X43" s="6">
+        <v>1.0618000000000001</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>9611.9318000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10204,10 +11730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11289,6 +12815,238 @@
         <v>4323.6575000000003</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>20.075800000000001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>20.075800000000001</v>
+      </c>
+      <c r="H38" s="1">
+        <v>155555.19630000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>12120.6986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="H39" s="1">
+        <v>302040.815</v>
+      </c>
+      <c r="I39" s="1">
+        <v>138892.45319999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>241.08580000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>23.429500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9.6607000000000003</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9.6607000000000003</v>
+      </c>
+      <c r="H41" s="1">
+        <v>57128.062899999997</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6107.7772999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10.327999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10.327999999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>710178.40150000004</v>
+      </c>
+      <c r="I42" s="1">
+        <v>96799.439199999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4899.8391000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>487.33199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9730.6998999999996</v>
+      </c>
+      <c r="I44" s="1">
+        <v>297.48680000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2.2338</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.2338</v>
+      </c>
+      <c r="H45" s="1">
+        <v>77749.296499999997</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4011.1039000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -11296,10 +13054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12602,6 +14360,286 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>20.075800000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>155555.19630000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>12120.6986</v>
+      </c>
+      <c r="H38" s="1">
+        <v>213266.48620000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5746574</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>286242.7745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>302040.815</v>
+      </c>
+      <c r="G39" s="1">
+        <v>138892.45319999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>203215.81229999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5456832</v>
+      </c>
+      <c r="J39" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>261240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>241.08580000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>23.429500000000001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>511.44099999999997</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5.2998000000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <v>522.65830000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9.6607000000000003</v>
+      </c>
+      <c r="F41" s="1">
+        <v>57128.062899999997</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6107.7772999999997</v>
+      </c>
+      <c r="H41" s="1">
+        <v>511.44099999999997</v>
+      </c>
+      <c r="I41" s="1">
+        <v>13273</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4.3041</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1373.8738000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10.327999999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>710178.40150000004</v>
+      </c>
+      <c r="G42" s="1">
+        <v>96799.439199999993</v>
+      </c>
+      <c r="H42" s="1">
+        <v>51490.515200000002</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1360344</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="K42" s="1">
+        <v>131713.48310000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4899.8391000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>487.33199999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>51490.515200000002</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9374</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="K43" s="1">
+        <v>53854.445299999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9730.6998999999996</v>
+      </c>
+      <c r="G44" s="1">
+        <v>297.48680000000002</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2844.2896000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6963</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1.3975</v>
+      </c>
+      <c r="K44" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.2338</v>
+      </c>
+      <c r="F45" s="1">
+        <v>77749.296499999997</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4011.1039000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2844.2896000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>67016</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.1600999999999999</v>
+      </c>
+      <c r="K45" s="1">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -12609,10 +14647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13027,6 +15065,56 @@
         <v>1E-4</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>88.961500000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>31.502099999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.4047999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.1445999999999996</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13.509</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.1125</v>
+      </c>
+      <c r="M9" s="1">
+        <v>31970.555100000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -13034,10 +15122,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13144,6 +15232,20 @@
         <v>10167.393</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10141.6203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -13151,9 +15253,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -14105,6 +16209,156 @@
       </c>
       <c r="P19" s="1">
         <v>126607.9892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>40215.021200000003</v>
+      </c>
+      <c r="H20" s="1">
+        <v>13643.7682</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7.4012000000000002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.3422999999999998</v>
+      </c>
+      <c r="K20" s="3">
+        <v>153.43219999999999</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.2638999999999996</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1.0934999999999999</v>
+      </c>
+      <c r="P20" s="1">
+        <v>86424.063800000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13900.5206</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3400.6143999999999</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.8887999999999998</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6.8444000000000003</v>
+      </c>
+      <c r="K21" s="3">
+        <v>27.4726</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7.0456000000000003</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1.5284</v>
+      </c>
+      <c r="P21" s="1">
+        <v>20668.0272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="G22" s="1">
+        <v>57145.9548</v>
+      </c>
+      <c r="H22" s="1">
+        <v>15298.4149</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9.9062000000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6.5743999999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>233.0171</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.1143999999999998</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>129196.67479999999</v>
       </c>
     </row>
   </sheetData>
@@ -14114,9 +16368,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -18394,6 +20650,711 @@
         <v>1.0385</v>
       </c>
       <c r="O91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>31419.058199999999</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5695.3954999999996</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.18127199999999999</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1573.4884999999999</v>
+      </c>
+      <c r="H92" s="4">
+        <v>5.0080705199999999E-2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="N92" s="6">
+        <v>1.5233000000000001</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2185.2265000000002</v>
+      </c>
+      <c r="E93" s="1">
+        <v>577.67550000000006</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.26435500000000001</v>
+      </c>
+      <c r="G93" s="1">
+        <v>105.17870000000001</v>
+      </c>
+      <c r="H93" s="4">
+        <v>4.8131736899999999E-2</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.1041</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="N93" s="6">
+        <v>2.3582000000000001</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5241.33</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1108.4574</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.21148400000000001</v>
+      </c>
+      <c r="G94" s="1">
+        <v>274.93180000000001</v>
+      </c>
+      <c r="H94" s="4">
+        <v>5.2454586599999999E-2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="L94" s="2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N94" s="6">
+        <v>1.6848000000000001</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>67002.901100000003</v>
+      </c>
+      <c r="E95" s="1">
+        <v>25303.6456</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.37764999999999999</v>
+      </c>
+      <c r="G95" s="1">
+        <v>9758.9575000000004</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.14564977670000001</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="L95" s="2">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2610.3548000000001</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1025.2325000000001</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.39275599999999999</v>
+      </c>
+      <c r="G96" s="1">
+        <v>108.5933</v>
+      </c>
+      <c r="H96" s="4">
+        <v>4.1600982100000003E-2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="N96" s="6">
+        <v>1.4621</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>14353.2693</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6504.6145999999999</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.45318000000000003</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1822.6180999999999</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.12698279060000001</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L97" s="2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="N97" s="6">
+        <v>1.0944</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>60565.909299999999</v>
+      </c>
+      <c r="E98" s="1">
+        <v>10688.187099999999</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.17647199999999999</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2742.4670000000001</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4.52807052E-2</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.8266</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L98" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N98" s="6">
+        <v>1.4596</v>
+      </c>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4181.3344999999999</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1076.0872999999999</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.257355</v>
+      </c>
+      <c r="G99" s="1">
+        <v>171.9855</v>
+      </c>
+      <c r="H99" s="4">
+        <v>4.11317369E-2</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="L99" s="2">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="N99" s="6">
+        <v>2.2945000000000002</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>10375.9696</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2136.2460999999998</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.20588400000000001</v>
+      </c>
+      <c r="G100" s="1">
+        <v>486.1617</v>
+      </c>
+      <c r="H100" s="4">
+        <v>4.6854586599999998E-2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="L100" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1.6212</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="E101" s="1">
+        <v>10108.336300000001</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.16459199999999999</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2051.2878000000001</v>
+      </c>
+      <c r="H101" s="4">
+        <v>3.3400705199999998E-2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0.7631</v>
+      </c>
+      <c r="L101" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="N101" s="6">
+        <v>1.4652000000000001</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="E102" s="1">
+        <v>990.41700000000003</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.24002999999999999</v>
+      </c>
+      <c r="G102" s="1">
+        <v>98.231800000000007</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2.38067369E-2</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="L102" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="N102" s="6">
+        <v>2.3001</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1996.2610999999999</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.192024</v>
+      </c>
+      <c r="G103" s="1">
+        <v>343.00819999999999</v>
+      </c>
+      <c r="H103" s="4">
+        <v>3.29945866E-2</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="L103" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N103" s="6">
+        <v>1.6267</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="E104" s="1">
+        <v>33827.264799999997</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="G104" s="1">
+        <v>10940.321099999999</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.11089977669999999</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="L104" s="2">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1320.0600999999999</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.35661599999999999</v>
+      </c>
+      <c r="G105" s="1">
+        <v>20.214500000000001</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5.4609821000000001E-3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0.8528</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="L105" s="2">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="N105" s="6">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>21638.0272</v>
+      </c>
+      <c r="E106" s="1">
+        <v>8903.6154000000006</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.41148000000000001</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1845.3513</v>
+      </c>
+      <c r="H106" s="4">
+        <v>8.5282790600000005E-2</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.8528</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="L106" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="N106" s="6">
+        <v>1.0402</v>
+      </c>
+      <c r="O106" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18404,9 +21365,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -21146,6 +24109,450 @@
       </c>
       <c r="X37" s="1">
         <v>5344.3321999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>153399.47330000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>26491.919000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.17269889150000001</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4.1507596799999998E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6367.2434000000003</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.7913</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5.4406999999999996</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.8246</v>
+      </c>
+      <c r="O38" s="3">
+        <v>16596.518100000001</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4.4855999999999998</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>99.073800000000006</v>
+      </c>
+      <c r="T38" s="1">
+        <v>13352.047399999999</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="V38" s="1">
+        <v>200.74350000000001</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1.4749000000000001</v>
+      </c>
+      <c r="X38" s="1">
+        <v>10039.0666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10492.782800000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2644.1799000000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.25199987080000003</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.5776607799999999E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>375.39609999999999</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3.1421000000000001</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.1507</v>
+      </c>
+      <c r="M39" s="1">
+        <v>342.04300000000001</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3.4020999999999999</v>
+      </c>
+      <c r="O39" s="3">
+        <v>7718.7788</v>
+      </c>
+      <c r="P39" s="1">
+        <v>7.7784000000000004</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1.06E-2</v>
+      </c>
+      <c r="S39" s="1">
+        <v>12.881</v>
+      </c>
+      <c r="T39" s="1">
+        <v>2859.4549000000002</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="V39" s="1">
+        <v>29.190200000000001</v>
+      </c>
+      <c r="W39" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="X39" s="1">
+        <v>4368.4157999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>26013.1934</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5240.9646000000002</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.2014733289</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4.2443915499999998E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1104.1016999999999</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.9748</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3.5013999999999998</v>
+      </c>
+      <c r="L40" s="2">
+        <v>6.13E-2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>253.79320000000001</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="O40" s="3">
+        <v>12137.786899999999</v>
+      </c>
+      <c r="P40" s="1">
+        <v>6.7710999999999997</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2.12E-2</v>
+      </c>
+      <c r="S40" s="1">
+        <v>17.4648</v>
+      </c>
+      <c r="T40" s="1">
+        <v>2851.4897000000001</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="V40" s="1">
+        <v>152.90459999999999</v>
+      </c>
+      <c r="W40" s="6">
+        <v>1.6362000000000001</v>
+      </c>
+      <c r="X40" s="1">
+        <v>4268.2040999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>165653.42550000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>59130.910400000001</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.35695555480000002</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.1249553316</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20699.278699999999</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.81989999999999996</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>10.583600000000001</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="O41" s="3">
+        <v>35008.693899999998</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="S41" s="1">
+        <v>103.8317</v>
+      </c>
+      <c r="T41" s="1">
+        <v>7415.2614000000003</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="V41" s="1">
+        <v>501.17250000000001</v>
+      </c>
+      <c r="W41" s="6">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="X41" s="1">
+        <v>5707.5886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6311.9839000000002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2345.2926000000002</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.37156189090000002</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2.0406872999999999E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>128.80779999999999</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.7618</v>
+      </c>
+      <c r="L42" s="2">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>213.3656</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2.7128999999999999</v>
+      </c>
+      <c r="O42" s="3">
+        <v>6013.2226000000001</v>
+      </c>
+      <c r="P42" s="1">
+        <v>6.7579000000000002</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="R42" s="2">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="S42" s="1">
+        <v>15.2889</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1653.5929000000001</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="V42" s="1">
+        <v>177.16300000000001</v>
+      </c>
+      <c r="W42" s="6">
+        <v>1.4303999999999999</v>
+      </c>
+      <c r="X42" s="1">
+        <v>2598.2280999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>35991.296499999997</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15408.23</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.4281098908</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.1019126814</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3667.9695000000002</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>43.398499999999999</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.3491</v>
+      </c>
+      <c r="O43" s="3">
+        <v>15839.5229</v>
+      </c>
+      <c r="P43" s="1">
+        <v>5.0366999999999997</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="S43" s="1">
+        <v>38.120899999999999</v>
+      </c>
+      <c r="T43" s="1">
+        <v>3838.7085000000002</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="V43" s="1">
+        <v>417.97430000000003</v>
+      </c>
+      <c r="W43" s="6">
+        <v>1.0618000000000001</v>
+      </c>
+      <c r="X43" s="1">
+        <v>9611.9318000000003</v>
       </c>
     </row>
   </sheetData>
@@ -21155,10 +24562,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21788,6 +25195,103 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>399.44</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.3822000000000001</v>
+      </c>
+      <c r="I20" s="3">
+        <v>158.81610000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>51.997700000000002</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.5431000000000008</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.8376999999999999</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>446.67950000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>19.761199999999999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>413.9221</v>
+      </c>
+      <c r="J22" s="1">
+        <v>114.8214</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Data/MAIN_DATA_FILE.xlsx
+++ b/Data/MAIN_DATA_FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90199258-F10C-43E4-A623-0889E087CBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564CFA3-8B67-4348-A4DA-6CFB63412A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="132">
   <si>
     <t>Component</t>
   </si>
@@ -796,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2818,6 +2818,286 @@
       </c>
       <c r="R36" s="1">
         <v>13318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>17.4068</v>
+      </c>
+      <c r="F37" s="1">
+        <v>152542.64809999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11459.271199999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>210234.5001</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2.69E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>324600</v>
+      </c>
+      <c r="K37" s="1">
+        <v>570626</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2.7017000000000002</v>
+      </c>
+      <c r="M37" s="1">
+        <v>15405.4483</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5.0697000000000001</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>5650257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>18.5382</v>
+      </c>
+      <c r="F38" s="1">
+        <v>291056.5687</v>
+      </c>
+      <c r="G38" s="1">
+        <v>133565.06599999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>197253.0116</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>284148.73229999997</v>
+      </c>
+      <c r="K38" s="1">
+        <v>536450</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2.7117</v>
+      </c>
+      <c r="M38" s="1">
+        <v>29640.925500000001</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6.1109</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>5267627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.5157000000000007</v>
+      </c>
+      <c r="F39" s="1">
+        <v>639935.85510000004</v>
+      </c>
+      <c r="G39" s="1">
+        <v>66530.630799999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50528.366699999999</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="J39" s="1">
+        <v>141402.43900000001</v>
+      </c>
+      <c r="K39" s="1">
+        <v>237244</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.6748000000000003</v>
+      </c>
+      <c r="M39" s="1">
+        <v>112831.8728</v>
+      </c>
+      <c r="N39" s="1">
+        <v>10.003399999999999</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1345548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>9.2256</v>
+      </c>
+      <c r="F40" s="1">
+        <v>88319.050900000002</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6630.0783000000001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2840.6963000000001</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7984.2767000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <v>13759</v>
+      </c>
+      <c r="L40" s="3">
+        <v>4.8314000000000004</v>
+      </c>
+      <c r="M40" s="1">
+        <v>16496.6656</v>
+      </c>
+      <c r="N40" s="1">
+        <v>14.4618</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>73660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6.7595999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>54386.321900000003</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2321.0457000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>513.01760000000002</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4.0133999999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2004.6732</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2861</v>
+      </c>
+      <c r="L41" s="3">
+        <v>5.5617000000000001</v>
+      </c>
+      <c r="M41" s="1">
+        <v>11480.643899999999</v>
+      </c>
+      <c r="N41" s="1">
+        <v>12.8377</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="R41" s="1">
+        <v>13551</v>
       </c>
     </row>
   </sheetData>
@@ -2866,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="R112" sqref="R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8174,6 +8454,756 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30461.414799999999</v>
+      </c>
+      <c r="F107" s="1">
+        <v>7416.6930000000002</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0.2434782855</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3842.8924999999999</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0.1261560749</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="O107" s="6">
+        <v>1.2754000000000001</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2047.0429999999999</v>
+      </c>
+      <c r="F108" s="1">
+        <v>726.84870000000001</v>
+      </c>
+      <c r="G108" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0.35507249969999999</v>
+      </c>
+      <c r="I108" s="1">
+        <v>314.0788</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0.15343052430000001</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O108" s="6">
+        <v>2.2677999999999998</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>5074.2245000000003</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1441.374</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H109" s="6">
+        <v>0.28405799980000002</v>
+      </c>
+      <c r="I109" s="1">
+        <v>676.81200000000001</v>
+      </c>
+      <c r="J109" s="6">
+        <v>0.1333823663</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O109" s="6">
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>64771.479500000001</v>
+      </c>
+      <c r="F110" s="1">
+        <v>32855.101600000002</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H110" s="6">
+        <v>0.50724642819999999</v>
+      </c>
+      <c r="I110" s="1">
+        <v>19264.527399999999</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0.29742299459999999</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="P110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2440.9729000000002</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1287.7018</v>
+      </c>
+      <c r="G111" s="2">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H111" s="6">
+        <v>0.52753628529999996</v>
+      </c>
+      <c r="I111" s="1">
+        <v>470.959</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0.19293906690000001</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O111" s="6">
+        <v>1.4216</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>13877.929</v>
+      </c>
+      <c r="F112" s="1">
+        <v>8447.4359000000004</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H112" s="6">
+        <v>0.60869571389999999</v>
+      </c>
+      <c r="I112" s="1">
+        <v>4121.0441000000001</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0.29694950399999998</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="O112" s="6">
+        <v>1.0810999999999999</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>60566.123599999999</v>
+      </c>
+      <c r="F113" s="1">
+        <v>14670.716899999999</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="H113" s="6">
+        <v>0.24222644779999999</v>
+      </c>
+      <c r="I113" s="1">
+        <v>7564.9654</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0.1249042371</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O113" s="6">
+        <v>1.2109000000000001</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4180.8523999999998</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1476.8731</v>
+      </c>
+      <c r="G114" s="2">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0.353246903</v>
+      </c>
+      <c r="I114" s="1">
+        <v>633.83780000000002</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0.15160492759999999</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O114" s="6">
+        <v>2.2033</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
+        <v>10376.612300000001</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2932.4049</v>
+      </c>
+      <c r="G115" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0.28259752240000002</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1368.9023</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0.13192188890000001</v>
+      </c>
+      <c r="K115" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="N115" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O115" s="6">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="P115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="F116" s="1">
+        <v>14477.909</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H116" s="6">
+        <v>0.23574087060000001</v>
+      </c>
+      <c r="I116" s="1">
+        <v>7272.6234000000004</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0.1184186599</v>
+      </c>
+      <c r="K116" s="2">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="M116" s="2">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="O116" s="6">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="P116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1418.5487000000001</v>
+      </c>
+      <c r="G117" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H117" s="6">
+        <v>0.34378876959999999</v>
+      </c>
+      <c r="I117" s="1">
+        <v>586.52919999999995</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0.1421467941</v>
+      </c>
+      <c r="K117" s="2">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="M117" s="2">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O117" s="6">
+        <v>2.2090999999999998</v>
+      </c>
+      <c r="P117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2859.1932000000002</v>
+      </c>
+      <c r="G118" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H118" s="6">
+        <v>0.27503101569999999</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1292.7853</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0.1243553822</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.9879</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="N118" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O118" s="6">
+        <v>1.5426</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="F119" s="1">
+        <v>48449.917699999998</v>
+      </c>
+      <c r="G119" s="2">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="H119" s="6">
+        <v>0.4911268137</v>
+      </c>
+      <c r="I119" s="1">
+        <v>27750.725900000001</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0.2813033801</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="M119" s="2">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="N119" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="O119" s="6">
+        <v>0.8579</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1890.6880000000001</v>
+      </c>
+      <c r="G120" s="2">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H120" s="6">
+        <v>0.51077188630000003</v>
+      </c>
+      <c r="I120" s="1">
+        <v>652.13319999999999</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0.17617466779999999</v>
+      </c>
+      <c r="K120" s="2">
+        <v>0.8216</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="M120" s="2">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="N120" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O120" s="6">
+        <v>1.367</v>
+      </c>
+      <c r="P120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
+        <v>21638.0272</v>
+      </c>
+      <c r="F121" s="1">
+        <v>12752.4184</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="H121" s="6">
+        <v>0.58935217650000005</v>
+      </c>
+      <c r="I121" s="1">
+        <v>6006.8454000000002</v>
+      </c>
+      <c r="J121" s="6">
+        <v>0.27760596659999998</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="M121" s="2">
+        <v>0.9627</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="O121" s="6">
+        <v>1.0265</v>
+      </c>
+      <c r="P121" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -8181,10 +9211,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8397,6 +9427,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>232392.59539999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>731.10490000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>539.38390000000004</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9321.7253999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -8404,10 +9460,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11723,6 +12779,468 @@
         <v>9611.9318000000003</v>
       </c>
     </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>152442.0441</v>
+      </c>
+      <c r="E44" s="1">
+        <v>36565.319000000003</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.23986374150000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.1225415309</v>
+      </c>
+      <c r="H44" s="1">
+        <v>18680.481400000001</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5.2531999999999996</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6.6635</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1.9632000000000001</v>
+      </c>
+      <c r="P44" s="3">
+        <v>35113.14</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>5.5895000000000001</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="S44" s="2">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="T44" s="1">
+        <v>30.693999999999999</v>
+      </c>
+      <c r="U44" s="1">
+        <v>3704.1107999999999</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1106.1241</v>
+      </c>
+      <c r="X44" s="6">
+        <v>1.2262</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>4175.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10354.1173</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3622.2705999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.34983866650000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.14819669099999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1534.4458999999999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.1246</v>
+      </c>
+      <c r="N45" s="1">
+        <v>260.16090000000003</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3.8472</v>
+      </c>
+      <c r="P45" s="3">
+        <v>8032.2951999999996</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>8.2574000000000005</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="S45" s="2">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>12.4458</v>
+      </c>
+      <c r="U45" s="1">
+        <v>2576.5353</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1353.9891</v>
+      </c>
+      <c r="X45" s="6">
+        <v>2.2183000000000002</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>4682.6869999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>25846.730599999999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7232.9722000000002</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.27984089480000002</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.12916526140000001</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3338.4996999999998</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3.2113</v>
+      </c>
+      <c r="M46" s="2">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>147.17619999999999</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3.2972999999999999</v>
+      </c>
+      <c r="P46" s="3">
+        <v>12841.6332</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>7.1927000000000003</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="S46" s="2">
+        <v>5.62E-2</v>
+      </c>
+      <c r="T46" s="1">
+        <v>17.145700000000001</v>
+      </c>
+      <c r="U46" s="1">
+        <v>2656.8227999999999</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1173.4916000000001</v>
+      </c>
+      <c r="X46" s="6">
+        <v>1.5518000000000001</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>4163.9697999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>163422.00399999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>81305.019400000005</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.4975157409</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.28769230730000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>47015.253400000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="L47" s="3">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N47" s="1">
+        <v>61.3093</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2.0545</v>
+      </c>
+      <c r="P47" s="3">
+        <v>70449.145999999993</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>5.6764999999999999</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="S47" s="2">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="T47" s="1">
+        <v>30.113800000000001</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1949.8734999999999</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="W47" s="1">
+        <v>974.77440000000001</v>
+      </c>
+      <c r="X47" s="6">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>2191.4162999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6142.6019999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3178.3899000000001</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.51743379349999996</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.18283657510000001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1123.0923</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.7618</v>
+      </c>
+      <c r="M48" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>168.6404</v>
+      </c>
+      <c r="O48" s="3">
+        <v>3.4110999999999998</v>
+      </c>
+      <c r="P48" s="3">
+        <v>7010.9521000000004</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>7.4941000000000004</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="S48" s="2">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>15.2309</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1569.6424999999999</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="W48" s="1">
+        <v>701.34960000000001</v>
+      </c>
+      <c r="X48" s="6">
+        <v>1.3887</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>2386.4389999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>35515.956200000001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>21199.854299999999</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.59691070140000002</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.28516449150000001</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10127.8896</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>550.05840000000001</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3.2521</v>
+      </c>
+      <c r="P49" s="3">
+        <v>36007.707000000002</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>7.1048</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="S49" s="2">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>20.975200000000001</v>
+      </c>
+      <c r="U49" s="1">
+        <v>2019.5672</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="W49" s="1">
+        <v>946.04200000000003</v>
+      </c>
+      <c r="X49" s="6">
+        <v>1.0478000000000001</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>5643.5734000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -11730,10 +13248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13047,6 +14565,238 @@
         <v>4011.1039000000001</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>17.4068</v>
+      </c>
+      <c r="G46" s="3">
+        <v>17.4068</v>
+      </c>
+      <c r="H46" s="1">
+        <v>152542.64809999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>11459.271199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>18.5382</v>
+      </c>
+      <c r="G47" s="3">
+        <v>18.5382</v>
+      </c>
+      <c r="H47" s="1">
+        <v>291056.5687</v>
+      </c>
+      <c r="I47" s="1">
+        <v>133565.06599999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>166.99289999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>15.843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6.7016</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6.7016</v>
+      </c>
+      <c r="H49" s="1">
+        <v>54219.328999999998</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2305.2026000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.52E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>9.5157000000000007</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9.5157000000000007</v>
+      </c>
+      <c r="H51" s="1">
+        <v>639935.85510000004</v>
+      </c>
+      <c r="I51" s="1">
+        <v>66530.630799999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2432.6749</v>
+      </c>
+      <c r="I52" s="1">
+        <v>74.371700000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>9.1675000000000004</v>
+      </c>
+      <c r="G53" s="3">
+        <v>9.1675000000000004</v>
+      </c>
+      <c r="H53" s="1">
+        <v>85886.375899999999</v>
+      </c>
+      <c r="I53" s="1">
+        <v>6555.7066000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -13054,10 +14804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14640,6 +16390,286 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17.4068</v>
+      </c>
+      <c r="F46" s="1">
+        <v>152542.64809999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11459.271199999999</v>
+      </c>
+      <c r="H46" s="1">
+        <v>210234.5001</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5650257</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2.69E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>324600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18.5382</v>
+      </c>
+      <c r="F47" s="1">
+        <v>291056.5687</v>
+      </c>
+      <c r="G47" s="1">
+        <v>133565.06599999999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>197253.0116</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5267627</v>
+      </c>
+      <c r="J47" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>284148.73229999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>166.99289999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>15.843</v>
+      </c>
+      <c r="H48" s="1">
+        <v>513.01760000000002</v>
+      </c>
+      <c r="I48" s="1">
+        <v>32</v>
+      </c>
+      <c r="J48" s="4">
+        <v>5.2862999999999998</v>
+      </c>
+      <c r="K48" s="1">
+        <v>544.43430000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6.7016</v>
+      </c>
+      <c r="F49" s="1">
+        <v>54219.328999999998</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2305.2026000000001</v>
+      </c>
+      <c r="H49" s="1">
+        <v>513.01760000000002</v>
+      </c>
+      <c r="I49" s="1">
+        <v>13519</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4.0105000000000004</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2017.316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>50528.366699999999</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9.5157000000000007</v>
+      </c>
+      <c r="F51" s="1">
+        <v>639935.85510000004</v>
+      </c>
+      <c r="G51" s="1">
+        <v>66530.630799999999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50528.366699999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1345548</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="K51" s="1">
+        <v>141402.43900000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2432.6749</v>
+      </c>
+      <c r="G52" s="1">
+        <v>74.371700000000004</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2840.6963000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1741</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1.3975</v>
+      </c>
+      <c r="K52" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>9.1675000000000004</v>
+      </c>
+      <c r="F53" s="1">
+        <v>85886.375899999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6555.7066000000004</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2840.6963000000001</v>
+      </c>
+      <c r="I53" s="1">
+        <v>71919</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1.1941999999999999</v>
+      </c>
+      <c r="K53" s="1">
+        <v>7844.9367000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -14647,10 +16677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15115,6 +17145,56 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>87.275999999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15.7004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.2777000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15.3125</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5.3414000000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.1308</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>14476.552299999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -15122,10 +17202,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15246,6 +17326,20 @@
         <v>10141.6203</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10930.527400000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -15253,10 +17347,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16361,6 +18455,156 @@
         <v>129196.67479999999</v>
       </c>
     </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.01449285651587</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>52175.155200000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28690.3141</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7.2215999999999996</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6.3914</v>
+      </c>
+      <c r="K23" s="3">
+        <v>148.20009999999999</v>
+      </c>
+      <c r="L23" s="3">
+        <v>11.4678</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1.0076000000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <v>83583.443400000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.0092768659413101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>19079.9951</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9567.7055999999993</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.8609</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5.6760999999999999</v>
+      </c>
+      <c r="K24" s="3">
+        <v>26.084499999999998</v>
+      </c>
+      <c r="L24" s="3">
+        <v>11.1363</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1.3111999999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <v>19612.4771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.98225362752675605</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G25" s="1">
+        <v>81848.675199999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43561.642699999997</v>
+      </c>
+      <c r="I25" s="3">
+        <v>9.9062000000000001</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6.5743999999999998</v>
+      </c>
+      <c r="K25" s="3">
+        <v>233.0171</v>
+      </c>
+      <c r="L25" s="3">
+        <v>10.802300000000001</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <v>129196.67479999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -16368,10 +18612,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="S110" sqref="S110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21358,6 +23602,711 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>30461.414799999999</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7416.6930000000002</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.2434782855</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3842.8924999999999</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0.1261560749</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="L107" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="N107" s="6">
+        <v>1.2754000000000001</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2047.0429999999999</v>
+      </c>
+      <c r="E108" s="1">
+        <v>726.84870000000001</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.35507249969999999</v>
+      </c>
+      <c r="G108" s="1">
+        <v>314.0788</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0.15343052430000001</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="L108" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N108" s="6">
+        <v>2.2677999999999998</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5074.2245000000003</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1441.374</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.28405799980000002</v>
+      </c>
+      <c r="G109" s="1">
+        <v>676.81200000000001</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.1333823663</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1.67E-2</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1.6012999999999999</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>64771.479500000001</v>
+      </c>
+      <c r="E110" s="1">
+        <v>32855.101600000002</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.50724642819999999</v>
+      </c>
+      <c r="G110" s="1">
+        <v>19264.527399999999</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0.29742299459999999</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="O110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2440.9729000000002</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1287.7018</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.52753628529999996</v>
+      </c>
+      <c r="G111" s="1">
+        <v>470.959</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0.19293906690000001</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="L111" s="2">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N111" s="6">
+        <v>1.4216</v>
+      </c>
+      <c r="O111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>13877.929</v>
+      </c>
+      <c r="E112" s="1">
+        <v>8447.4359000000004</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.60869571389999999</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4121.0441000000001</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.29694950399999998</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="N112" s="6">
+        <v>1.0810999999999999</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>60566.123599999999</v>
+      </c>
+      <c r="E113" s="1">
+        <v>14670.716899999999</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.24222644779999999</v>
+      </c>
+      <c r="G113" s="1">
+        <v>7564.9654</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0.1249042371</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="L113" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N113" s="6">
+        <v>1.2109000000000001</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>4180.8523999999998</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1476.8731</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.353246903</v>
+      </c>
+      <c r="G114" s="1">
+        <v>633.83780000000002</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0.15160492759999999</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="L114" s="2">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N114" s="6">
+        <v>2.2033</v>
+      </c>
+      <c r="O114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>10376.612300000001</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2932.4049</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.28259752240000002</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1368.9023</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0.13192188890000001</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="K115" s="2">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="L115" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N115" s="6">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="O115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="E116" s="1">
+        <v>14477.909</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.23574087060000001</v>
+      </c>
+      <c r="G116" s="1">
+        <v>7272.6234000000004</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0.1184186599</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="K116" s="2">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="L116" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="M116" s="2">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="N116" s="6">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="O116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1418.5487000000001</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0.34378876959999999</v>
+      </c>
+      <c r="G117" s="1">
+        <v>586.52919999999995</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0.1421467941</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="K117" s="2">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="L117" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="M117" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N117" s="6">
+        <v>2.2090999999999998</v>
+      </c>
+      <c r="O117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2859.1932000000002</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.27503101569999999</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1292.7853</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.1243553822</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0.9879</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="L118" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N118" s="6">
+        <v>1.5426</v>
+      </c>
+      <c r="O118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="E119" s="1">
+        <v>48449.917699999998</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.4911268137</v>
+      </c>
+      <c r="G119" s="1">
+        <v>27750.725900000001</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0.2813033801</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="L119" s="2">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="M119" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0.8579</v>
+      </c>
+      <c r="O119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1890.6880000000001</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0.51077188630000003</v>
+      </c>
+      <c r="G120" s="1">
+        <v>652.13319999999999</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.17617466779999999</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0.8216</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="K120" s="2">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="L120" s="2">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="M120" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N120" s="6">
+        <v>1.367</v>
+      </c>
+      <c r="O120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>21638.0272</v>
+      </c>
+      <c r="E121" s="1">
+        <v>12752.4184</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0.58935217650000005</v>
+      </c>
+      <c r="G121" s="1">
+        <v>6006.8454000000002</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.27760596659999998</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0.9627</v>
+      </c>
+      <c r="L121" s="2">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="M121" s="2">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="N121" s="6">
+        <v>1.0265</v>
+      </c>
+      <c r="O121" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -21365,10 +24314,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24555,6 +27504,450 @@
         <v>9611.9318000000003</v>
       </c>
     </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>152442.0441</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36565.319000000003</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.23986374150000001</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.1225415309</v>
+      </c>
+      <c r="G44" s="1">
+        <v>18680.481400000001</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5.2531999999999996</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6.6635</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.9632000000000001</v>
+      </c>
+      <c r="O44" s="3">
+        <v>35113.14</v>
+      </c>
+      <c r="P44" s="1">
+        <v>5.5895000000000001</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="R44" s="2">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="S44" s="1">
+        <v>30.693999999999999</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3704.1107999999999</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1106.1241</v>
+      </c>
+      <c r="W44" s="6">
+        <v>1.2262</v>
+      </c>
+      <c r="X44" s="1">
+        <v>4175.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10354.1173</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3622.2705999999998</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.34983866650000001</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.14819669099999999</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1534.4458999999999</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.1246</v>
+      </c>
+      <c r="M45" s="1">
+        <v>260.16090000000003</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3.8472</v>
+      </c>
+      <c r="O45" s="3">
+        <v>8032.2951999999996</v>
+      </c>
+      <c r="P45" s="1">
+        <v>8.2574000000000005</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="R45" s="2">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>12.4458</v>
+      </c>
+      <c r="T45" s="1">
+        <v>2576.5353</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1353.9891</v>
+      </c>
+      <c r="W45" s="6">
+        <v>2.2183000000000002</v>
+      </c>
+      <c r="X45" s="1">
+        <v>4682.6869999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25846.730599999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7232.9722000000002</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.27984089480000002</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.12916526140000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3338.4996999999998</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3.2113</v>
+      </c>
+      <c r="L46" s="2">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>147.17619999999999</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3.2972999999999999</v>
+      </c>
+      <c r="O46" s="3">
+        <v>12841.6332</v>
+      </c>
+      <c r="P46" s="1">
+        <v>7.1927000000000003</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="R46" s="2">
+        <v>5.62E-2</v>
+      </c>
+      <c r="S46" s="1">
+        <v>17.145700000000001</v>
+      </c>
+      <c r="T46" s="1">
+        <v>2656.8227999999999</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1173.4916000000001</v>
+      </c>
+      <c r="W46" s="6">
+        <v>1.5518000000000001</v>
+      </c>
+      <c r="X46" s="1">
+        <v>4163.9697999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>163422.00399999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>81305.019400000005</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.4975157409</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.28769230730000001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>47015.253400000001</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>61.3093</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2.0545</v>
+      </c>
+      <c r="O47" s="3">
+        <v>70449.145999999993</v>
+      </c>
+      <c r="P47" s="1">
+        <v>5.6764999999999999</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="R47" s="2">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="S47" s="1">
+        <v>30.113800000000001</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1949.8734999999999</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="V47" s="1">
+        <v>974.77440000000001</v>
+      </c>
+      <c r="W47" s="6">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="X47" s="1">
+        <v>2191.4162999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6142.6019999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3178.3899000000001</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.51743379349999996</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.18283657510000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1123.0923</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.7618</v>
+      </c>
+      <c r="L48" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>168.6404</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3.4110999999999998</v>
+      </c>
+      <c r="O48" s="3">
+        <v>7010.9521000000004</v>
+      </c>
+      <c r="P48" s="1">
+        <v>7.4941000000000004</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="R48" s="2">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="S48" s="1">
+        <v>15.2309</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1569.6424999999999</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="V48" s="1">
+        <v>701.34960000000001</v>
+      </c>
+      <c r="W48" s="6">
+        <v>1.3887</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2386.4389999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>35515.956200000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>21199.854299999999</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.59691070140000002</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.28516449150000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10127.8896</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="L49" s="2">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>550.05840000000001</v>
+      </c>
+      <c r="N49" s="3">
+        <v>3.2521</v>
+      </c>
+      <c r="O49" s="3">
+        <v>36007.707000000002</v>
+      </c>
+      <c r="P49" s="1">
+        <v>7.1048</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="R49" s="2">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="S49" s="1">
+        <v>20.975200000000001</v>
+      </c>
+      <c r="T49" s="1">
+        <v>2019.5672</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="V49" s="1">
+        <v>946.04200000000003</v>
+      </c>
+      <c r="W49" s="6">
+        <v>1.0478000000000001</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5643.5734000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -24562,10 +27955,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25292,6 +28685,103 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>600</v>
+      </c>
+      <c r="E23" s="1">
+        <v>418.27</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.3231000000000002</v>
+      </c>
+      <c r="I23" s="3">
+        <v>155.36709999999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>51.7517</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8.4489999999999998</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.36820000000000003</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.7351000000000001</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>900</v>
+      </c>
+      <c r="E25" s="1">
+        <v>937.24720000000002</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.0412999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>18.641999999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>407.30189999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>136.1498</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.18870000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Data/MAIN_DATA_FILE.xlsx
+++ b/Data/MAIN_DATA_FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564CFA3-8B67-4348-A4DA-6CFB63412A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACB1A1-044F-4DC6-9BEA-8BF4DEE6B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="914" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="132">
   <si>
     <t>Component</t>
   </si>
@@ -486,12 +486,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -796,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,6 +3142,286 @@
       </c>
       <c r="R41" s="1">
         <v>13551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F42" s="7">
+        <v>153698.52559999999</v>
+      </c>
+      <c r="G42" s="7">
+        <v>11600.994199999999</v>
+      </c>
+      <c r="H42" s="7">
+        <v>210858.1477</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <v>317925.44569999998</v>
+      </c>
+      <c r="K42" s="7">
+        <v>561474</v>
+      </c>
+      <c r="L42" s="9">
+        <v>2.6478000000000002</v>
+      </c>
+      <c r="M42" s="7">
+        <v>15164.2469</v>
+      </c>
+      <c r="N42" s="7">
+        <v>5.0301</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="R42" s="7">
+        <v>5690873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>18.5382</v>
+      </c>
+      <c r="F43" s="7">
+        <v>292802.49280000001</v>
+      </c>
+      <c r="G43" s="7">
+        <v>134313.01459999999</v>
+      </c>
+      <c r="H43" s="7">
+        <v>198496.49739999999</v>
+      </c>
+      <c r="I43" s="10">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>285949.29570000002</v>
+      </c>
+      <c r="K43" s="7">
+        <v>538635</v>
+      </c>
+      <c r="L43" s="9">
+        <v>2.7071999999999998</v>
+      </c>
+      <c r="M43" s="7">
+        <v>29751.6662</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6.0964</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="R43" s="7">
+        <v>5301006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>9.7477999999999998</v>
+      </c>
+      <c r="F44" s="7">
+        <v>640399.71569999994</v>
+      </c>
+      <c r="G44" s="7">
+        <v>66623.595499999996</v>
+      </c>
+      <c r="H44" s="7">
+        <v>50713.789199999999</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="J44" s="7">
+        <v>138125</v>
+      </c>
+      <c r="K44" s="7">
+        <v>234063</v>
+      </c>
+      <c r="L44" s="9">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="M44" s="7">
+        <v>111327.853</v>
+      </c>
+      <c r="N44" s="7">
+        <v>9.9032</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="R44" s="7">
+        <v>1346418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10.008900000000001</v>
+      </c>
+      <c r="F45" s="7">
+        <v>88987.039600000004</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6810.4697999999999</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2853.6408999999999</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1.2015</v>
+      </c>
+      <c r="J45" s="7">
+        <v>7399.1485000000002</v>
+      </c>
+      <c r="K45" s="7">
+        <v>12007</v>
+      </c>
+      <c r="L45" s="9">
+        <v>4.1966999999999999</v>
+      </c>
+      <c r="M45" s="7">
+        <v>14427.2454</v>
+      </c>
+      <c r="N45" s="7">
+        <v>13.9055</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>1.43E-2</v>
+      </c>
+      <c r="R45" s="7">
+        <v>74058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="7">
+        <v>6</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>6.7885999999999997</v>
+      </c>
+      <c r="F46" s="7">
+        <v>54498.4614</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2328.3368</v>
+      </c>
+      <c r="H46" s="7">
+        <v>513.98919999999998</v>
+      </c>
+      <c r="I46" s="10">
+        <v>4.0134999999999996</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2000.1778999999999</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2671</v>
+      </c>
+      <c r="L46" s="9">
+        <v>5.1837</v>
+      </c>
+      <c r="M46" s="7">
+        <v>10720.8004</v>
+      </c>
+      <c r="N46" s="7">
+        <v>12.473599999999999</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="R46" s="7">
+        <v>13579</v>
       </c>
     </row>
   </sheetData>
@@ -3146,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R112" sqref="R112"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9204,6 +9528,756 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="41">
+        <v>6</v>
+      </c>
+      <c r="E122" s="41">
+        <v>30461.414799999999</v>
+      </c>
+      <c r="F122" s="41">
+        <v>7371.6079</v>
+      </c>
+      <c r="G122" s="42">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H122" s="43">
+        <v>0.2419982141</v>
+      </c>
+      <c r="I122" s="41">
+        <v>3798.3795</v>
+      </c>
+      <c r="J122" s="43">
+        <v>0.1246947831</v>
+      </c>
+      <c r="K122" s="42">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="L122" s="42">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="M122" s="42">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="N122" s="42">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="O122" s="43">
+        <v>1.2741</v>
+      </c>
+      <c r="P122" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="41">
+        <v>6</v>
+      </c>
+      <c r="E123" s="41">
+        <v>2047.0429999999999</v>
+      </c>
+      <c r="F123" s="41">
+        <v>722.43020000000001</v>
+      </c>
+      <c r="G123" s="42">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H123" s="43">
+        <v>0.35291406219999999</v>
+      </c>
+      <c r="I123" s="41">
+        <v>302.05779999999999</v>
+      </c>
+      <c r="J123" s="43">
+        <v>0.14755815420000001</v>
+      </c>
+      <c r="K123" s="42">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="L123" s="42">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M123" s="42">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="N123" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O123" s="43">
+        <v>2.3245</v>
+      </c>
+      <c r="P123" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D124" s="41">
+        <v>6</v>
+      </c>
+      <c r="E124" s="41">
+        <v>5074.2245000000003</v>
+      </c>
+      <c r="F124" s="41">
+        <v>1432.6121000000001</v>
+      </c>
+      <c r="G124" s="42">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H124" s="43">
+        <v>0.28233124980000002</v>
+      </c>
+      <c r="I124" s="41">
+        <v>650.09159999999997</v>
+      </c>
+      <c r="J124" s="43">
+        <v>0.12811645520000001</v>
+      </c>
+      <c r="K124" s="42">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="L124" s="42">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="M124" s="42">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="N124" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O124" s="43">
+        <v>1.6533</v>
+      </c>
+      <c r="P124" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="41">
+        <v>6</v>
+      </c>
+      <c r="E125" s="41">
+        <v>64771.479500000001</v>
+      </c>
+      <c r="F125" s="41">
+        <v>32655.3799</v>
+      </c>
+      <c r="G125" s="42">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H125" s="43">
+        <v>0.50416294610000001</v>
+      </c>
+      <c r="I125" s="41">
+        <v>19026.009900000001</v>
+      </c>
+      <c r="J125" s="43">
+        <v>0.29374054830000002</v>
+      </c>
+      <c r="K125" s="42">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="L125" s="42">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="M125" s="42">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="N125" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="O125" s="43">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="P125" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="41">
+        <v>6</v>
+      </c>
+      <c r="E126" s="41">
+        <v>2440.9729000000002</v>
+      </c>
+      <c r="F126" s="41">
+        <v>1279.874</v>
+      </c>
+      <c r="G126" s="42">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H126" s="43">
+        <v>0.52432946390000001</v>
+      </c>
+      <c r="I126" s="41">
+        <v>450.59019999999998</v>
+      </c>
+      <c r="J126" s="43">
+        <v>0.18459453209999999</v>
+      </c>
+      <c r="K126" s="42">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="L126" s="42">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="M126" s="42">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="N126" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O126" s="43">
+        <v>1.4559</v>
+      </c>
+      <c r="P126" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="41">
+        <v>6</v>
+      </c>
+      <c r="E127" s="41">
+        <v>13877.929</v>
+      </c>
+      <c r="F127" s="41">
+        <v>8396.0851000000002</v>
+      </c>
+      <c r="G127" s="42">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H127" s="43">
+        <v>0.60499553530000005</v>
+      </c>
+      <c r="I127" s="41">
+        <v>4083.9823999999999</v>
+      </c>
+      <c r="J127" s="43">
+        <v>0.29427895250000002</v>
+      </c>
+      <c r="K127" s="42">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="L127" s="42">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="M127" s="42">
+        <v>0.9728</v>
+      </c>
+      <c r="N127" s="42">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="O127" s="43">
+        <v>1.0705</v>
+      </c>
+      <c r="P127" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" s="41">
+        <v>6</v>
+      </c>
+      <c r="E128" s="41">
+        <v>60566.123599999999</v>
+      </c>
+      <c r="F128" s="41">
+        <v>14792.5885</v>
+      </c>
+      <c r="G128" s="42">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="H128" s="43">
+        <v>0.244238655</v>
+      </c>
+      <c r="I128" s="41">
+        <v>7687.9744000000001</v>
+      </c>
+      <c r="J128" s="43">
+        <v>0.12693522400000001</v>
+      </c>
+      <c r="K128" s="42">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="L128" s="42">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="M128" s="42">
+        <v>0.9758</v>
+      </c>
+      <c r="N128" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="O128" s="43">
+        <v>1.2096</v>
+      </c>
+      <c r="P128" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" s="41">
+        <v>6</v>
+      </c>
+      <c r="E129" s="41">
+        <v>4180.8523999999998</v>
+      </c>
+      <c r="F129" s="41">
+        <v>1489.1416999999999</v>
+      </c>
+      <c r="G129" s="42">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H129" s="43">
+        <v>0.35618137189999999</v>
+      </c>
+      <c r="I129" s="41">
+        <v>630.57899999999995</v>
+      </c>
+      <c r="J129" s="43">
+        <v>0.1508254638</v>
+      </c>
+      <c r="K129" s="42">
+        <v>0.8175</v>
+      </c>
+      <c r="L129" s="42">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="M129" s="42">
+        <v>0.97</v>
+      </c>
+      <c r="N129" s="42">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O129" s="43">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="P129" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" s="41">
+        <v>6</v>
+      </c>
+      <c r="E130" s="41">
+        <v>10376.612300000001</v>
+      </c>
+      <c r="F130" s="41">
+        <v>2956.7647999999999</v>
+      </c>
+      <c r="G130" s="42">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H130" s="43">
+        <v>0.28494509750000002</v>
+      </c>
+      <c r="I130" s="41">
+        <v>1356.5376000000001</v>
+      </c>
+      <c r="J130" s="43">
+        <v>0.13073030299999999</v>
+      </c>
+      <c r="K130" s="42">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="L130" s="42">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="M130" s="42">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="N130" s="42">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O130" s="43">
+        <v>1.5888</v>
+      </c>
+      <c r="P130" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="41">
+        <v>6</v>
+      </c>
+      <c r="E131" s="41">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="F131" s="41">
+        <v>14733.918299999999</v>
+      </c>
+      <c r="G131" s="42">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H131" s="43">
+        <v>0.2399094179</v>
+      </c>
+      <c r="I131" s="41">
+        <v>7529.7860000000001</v>
+      </c>
+      <c r="J131" s="43">
+        <v>0.12260598690000001</v>
+      </c>
+      <c r="K131" s="42">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="L131" s="42">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="M131" s="42">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="N131" s="42">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="O131" s="43">
+        <v>1.2154</v>
+      </c>
+      <c r="P131" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" s="41">
+        <v>6</v>
+      </c>
+      <c r="E132" s="41">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="F132" s="41">
+        <v>1443.6324999999999</v>
+      </c>
+      <c r="G132" s="42">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H132" s="43">
+        <v>0.34986790109999999</v>
+      </c>
+      <c r="I132" s="41">
+        <v>596.2885</v>
+      </c>
+      <c r="J132" s="43">
+        <v>0.14451199300000001</v>
+      </c>
+      <c r="K132" s="42">
+        <v>0.8327</v>
+      </c>
+      <c r="L132" s="42">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="M132" s="42">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="N132" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O132" s="43">
+        <v>2.2658</v>
+      </c>
+      <c r="P132" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="41">
+        <v>6</v>
+      </c>
+      <c r="E133" s="41">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="F133" s="41">
+        <v>2909.7516000000001</v>
+      </c>
+      <c r="G133" s="42">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H133" s="43">
+        <v>0.27989432089999999</v>
+      </c>
+      <c r="I133" s="41">
+        <v>1306.5509999999999</v>
+      </c>
+      <c r="J133" s="43">
+        <v>0.12567952639999999</v>
+      </c>
+      <c r="K133" s="42">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="L133" s="42">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="M133" s="42">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="N133" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O133" s="43">
+        <v>1.5946</v>
+      </c>
+      <c r="P133" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="41">
+        <v>6</v>
+      </c>
+      <c r="E134" s="41">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="F134" s="41">
+        <v>49306.645600000003</v>
+      </c>
+      <c r="G134" s="42">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="H134" s="43">
+        <v>0.49981128730000002</v>
+      </c>
+      <c r="I134" s="41">
+        <v>28548.365699999998</v>
+      </c>
+      <c r="J134" s="43">
+        <v>0.28938888959999998</v>
+      </c>
+      <c r="K134" s="42">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="L134" s="42">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="M134" s="42">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="N134" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="O134" s="43">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="P134" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="41">
+        <v>6</v>
+      </c>
+      <c r="E135" s="41">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="F135" s="41">
+        <v>1924.1206</v>
+      </c>
+      <c r="G135" s="42">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H135" s="43">
+        <v>0.51980373879999997</v>
+      </c>
+      <c r="I135" s="41">
+        <v>666.54790000000003</v>
+      </c>
+      <c r="J135" s="43">
+        <v>0.180068807</v>
+      </c>
+      <c r="K135" s="42">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L135" s="42">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="M135" s="42">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="N135" s="42">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="O135" s="43">
+        <v>1.4012</v>
+      </c>
+      <c r="P135" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="41">
+        <v>6</v>
+      </c>
+      <c r="E136" s="41">
+        <v>21638.0272</v>
+      </c>
+      <c r="F136" s="41">
+        <v>12977.9162</v>
+      </c>
+      <c r="G136" s="42">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="H136" s="43">
+        <v>0.5997735448</v>
+      </c>
+      <c r="I136" s="41">
+        <v>6254.6224000000002</v>
+      </c>
+      <c r="J136" s="43">
+        <v>0.28905696199999997</v>
+      </c>
+      <c r="K136" s="42">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="L136" s="42">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="M136" s="42">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="N136" s="42">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="O136" s="43">
+        <v>1.0159</v>
+      </c>
+      <c r="P136" s="42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -9211,10 +10285,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9453,6 +10527,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="44">
+        <v>6</v>
+      </c>
+      <c r="C10" s="44">
+        <v>232392.59539999999</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>731.10490000000004</v>
+      </c>
+      <c r="F10" s="44">
+        <v>539.38390000000004</v>
+      </c>
+      <c r="G10" s="44">
+        <v>9321.7253999999994</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -9460,10 +10560,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13241,6 +14341,468 @@
         <v>5643.5734000000002</v>
       </c>
     </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="46">
+        <v>6</v>
+      </c>
+      <c r="D50" s="46">
+        <v>152442.0441</v>
+      </c>
+      <c r="E50" s="46">
+        <v>36898.114800000003</v>
+      </c>
+      <c r="F50" s="49">
+        <v>0.24204683869999999</v>
+      </c>
+      <c r="G50" s="49">
+        <v>0.1247434077</v>
+      </c>
+      <c r="H50" s="46">
+        <v>19016.14</v>
+      </c>
+      <c r="I50" s="47">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J50" s="47">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="K50" s="47">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="L50" s="48">
+        <v>5.2531999999999996</v>
+      </c>
+      <c r="M50" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="N50" s="46">
+        <v>36.894300000000001</v>
+      </c>
+      <c r="O50" s="48">
+        <v>1.9160999999999999</v>
+      </c>
+      <c r="P50" s="48">
+        <v>34264.319900000002</v>
+      </c>
+      <c r="Q50" s="46">
+        <v>5.5476000000000001</v>
+      </c>
+      <c r="R50" s="47">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="S50" s="47">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="T50" s="46">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="U50" s="46">
+        <v>3707.0118000000002</v>
+      </c>
+      <c r="V50" s="47">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="W50" s="46">
+        <v>1131.8825999999999</v>
+      </c>
+      <c r="X50" s="50">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="Y50" s="46">
+        <v>4174.5117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="46">
+        <v>6</v>
+      </c>
+      <c r="D51" s="46">
+        <v>10354.1173</v>
+      </c>
+      <c r="E51" s="46">
+        <v>3655.2046</v>
+      </c>
+      <c r="F51" s="49">
+        <v>0.35301943120000001</v>
+      </c>
+      <c r="G51" s="49">
+        <v>0.14766352320000001</v>
+      </c>
+      <c r="H51" s="46">
+        <v>1528.9254000000001</v>
+      </c>
+      <c r="I51" s="47">
+        <v>0.9708</v>
+      </c>
+      <c r="J51" s="47">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="K51" s="47">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="L51" s="48">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="M51" s="47">
+        <v>0.1479</v>
+      </c>
+      <c r="N51" s="46">
+        <v>314.4889</v>
+      </c>
+      <c r="O51" s="48">
+        <v>3.5568</v>
+      </c>
+      <c r="P51" s="48">
+        <v>7562.8953000000001</v>
+      </c>
+      <c r="Q51" s="46">
+        <v>8.0829000000000004</v>
+      </c>
+      <c r="R51" s="47">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="S51" s="47">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="T51" s="46">
+        <v>12.677899999999999</v>
+      </c>
+      <c r="U51" s="46">
+        <v>2672.9232999999999</v>
+      </c>
+      <c r="V51" s="47">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="W51" s="46">
+        <v>1355.9419</v>
+      </c>
+      <c r="X51" s="50">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="Y51" s="46">
+        <v>4779.5533999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="46">
+        <v>6</v>
+      </c>
+      <c r="D52" s="46">
+        <v>25846.730599999999</v>
+      </c>
+      <c r="E52" s="46">
+        <v>7299.1284999999998</v>
+      </c>
+      <c r="F52" s="49">
+        <v>0.28240045889999998</v>
+      </c>
+      <c r="G52" s="49">
+        <v>0.12818566440000001</v>
+      </c>
+      <c r="H52" s="46">
+        <v>3313.1803</v>
+      </c>
+      <c r="I52" s="47">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="J52" s="47">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="K52" s="47">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="L52" s="48">
+        <v>3.2113</v>
+      </c>
+      <c r="M52" s="47">
+        <v>6.59E-2</v>
+      </c>
+      <c r="N52" s="46">
+        <v>262.78109999999998</v>
+      </c>
+      <c r="O52" s="48">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="P52" s="48">
+        <v>12221.2369</v>
+      </c>
+      <c r="Q52" s="46">
+        <v>7.0717999999999996</v>
+      </c>
+      <c r="R52" s="47">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="S52" s="47">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="T52" s="46">
+        <v>17.203700000000001</v>
+      </c>
+      <c r="U52" s="46">
+        <v>2728.4144999999999</v>
+      </c>
+      <c r="V52" s="47">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="W52" s="46">
+        <v>1170.1007999999999</v>
+      </c>
+      <c r="X52" s="50">
+        <v>1.6037999999999999</v>
+      </c>
+      <c r="Y52" s="46">
+        <v>4151.0445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="46">
+        <v>6</v>
+      </c>
+      <c r="D53" s="46">
+        <v>163422.00399999999</v>
+      </c>
+      <c r="E53" s="46">
+        <v>81962.025500000003</v>
+      </c>
+      <c r="F53" s="49">
+        <v>0.50153604510000005</v>
+      </c>
+      <c r="G53" s="49">
+        <v>0.29111364740000001</v>
+      </c>
+      <c r="H53" s="46">
+        <v>47574.375599999999</v>
+      </c>
+      <c r="I53" s="47">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="J53" s="47">
+        <v>0.9637</v>
+      </c>
+      <c r="K53" s="47">
+        <v>0.94</v>
+      </c>
+      <c r="L53" s="48">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="M53" s="47">
+        <v>6.3E-3</v>
+      </c>
+      <c r="N53" s="46">
+        <v>218.10740000000001</v>
+      </c>
+      <c r="O53" s="48">
+        <v>1.9523999999999999</v>
+      </c>
+      <c r="P53" s="48">
+        <v>67138.640700000004</v>
+      </c>
+      <c r="Q53" s="46">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="R53" s="47">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="S53" s="47">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="T53" s="46">
+        <v>30.229800000000001</v>
+      </c>
+      <c r="U53" s="46">
+        <v>1961.0803000000001</v>
+      </c>
+      <c r="V53" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="W53" s="46">
+        <v>991.84119999999996</v>
+      </c>
+      <c r="X53" s="50">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="Y53" s="46">
+        <v>2246.5091000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="46">
+        <v>6</v>
+      </c>
+      <c r="D54" s="46">
+        <v>6142.6019999999999</v>
+      </c>
+      <c r="E54" s="46">
+        <v>3203.9947000000002</v>
+      </c>
+      <c r="F54" s="49">
+        <v>0.5216021904</v>
+      </c>
+      <c r="G54" s="49">
+        <v>0.18186725870000001</v>
+      </c>
+      <c r="H54" s="46">
+        <v>1117.1382000000001</v>
+      </c>
+      <c r="I54" s="47">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="J54" s="47">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="K54" s="47">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="L54" s="48">
+        <v>1.7618</v>
+      </c>
+      <c r="M54" s="47">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="N54" s="46">
+        <v>202.01519999999999</v>
+      </c>
+      <c r="O54" s="48">
+        <v>2.9977999999999998</v>
+      </c>
+      <c r="P54" s="48">
+        <v>6256.02</v>
+      </c>
+      <c r="Q54" s="46">
+        <v>7.1723999999999997</v>
+      </c>
+      <c r="R54" s="47">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="S54" s="47">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="T54" s="46">
+        <v>15.433999999999999</v>
+      </c>
+      <c r="U54" s="46">
+        <v>1614.9940999999999</v>
+      </c>
+      <c r="V54" s="47">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="W54" s="46">
+        <v>721.85680000000002</v>
+      </c>
+      <c r="X54" s="50">
+        <v>1.423</v>
+      </c>
+      <c r="Y54" s="46">
+        <v>2656.5952000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="46">
+        <v>6</v>
+      </c>
+      <c r="D55" s="46">
+        <v>35515.956200000001</v>
+      </c>
+      <c r="E55" s="46">
+        <v>21374.0013</v>
+      </c>
+      <c r="F55" s="49">
+        <v>0.60181404770000002</v>
+      </c>
+      <c r="G55" s="49">
+        <v>0.29109746489999999</v>
+      </c>
+      <c r="H55" s="46">
+        <v>10338.604799999999</v>
+      </c>
+      <c r="I55" s="47">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="J55" s="47">
+        <v>0.9647</v>
+      </c>
+      <c r="K55" s="47">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="L55" s="48">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="M55" s="47">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="N55" s="46">
+        <v>516.47140000000002</v>
+      </c>
+      <c r="O55" s="48">
+        <v>2.7355</v>
+      </c>
+      <c r="P55" s="48">
+        <v>30187.6142</v>
+      </c>
+      <c r="Q55" s="46">
+        <v>6.5971000000000002</v>
+      </c>
+      <c r="R55" s="47">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="S55" s="47">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="T55" s="46">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="U55" s="46">
+        <v>2004.5678</v>
+      </c>
+      <c r="V55" s="47">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="W55" s="46">
+        <v>984.5335</v>
+      </c>
+      <c r="X55" s="50">
+        <v>1.0371999999999999</v>
+      </c>
+      <c r="Y55" s="46">
+        <v>5408.5902999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -13248,10 +14810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14797,6 +16359,238 @@
         <v>6555.7066000000004</v>
       </c>
     </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="11">
+        <v>6</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="E54" s="12">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="F54" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G54" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H54" s="11">
+        <v>153698.52559999999</v>
+      </c>
+      <c r="I54" s="11">
+        <v>11600.994199999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="11">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E55" s="12">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F55" s="13">
+        <v>18.5382</v>
+      </c>
+      <c r="G55" s="13">
+        <v>18.5382</v>
+      </c>
+      <c r="H55" s="11">
+        <v>292802.49280000001</v>
+      </c>
+      <c r="I55" s="11">
+        <v>134313.01459999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="11">
+        <v>6</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G56" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H56" s="11">
+        <v>160.19540000000001</v>
+      </c>
+      <c r="I56" s="11">
+        <v>15.6008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="11">
+        <v>6</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="F57" s="13">
+        <v>6.7305999999999999</v>
+      </c>
+      <c r="G57" s="13">
+        <v>6.7305999999999999</v>
+      </c>
+      <c r="H57" s="11">
+        <v>54338.266000000003</v>
+      </c>
+      <c r="I57" s="11">
+        <v>2312.7359999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11">
+        <v>6</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="11">
+        <v>6</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="E59" s="12">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F59" s="13">
+        <v>9.7477999999999998</v>
+      </c>
+      <c r="G59" s="13">
+        <v>9.7477999999999998</v>
+      </c>
+      <c r="H59" s="11">
+        <v>640399.71569999994</v>
+      </c>
+      <c r="I59" s="11">
+        <v>66623.595499999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="11">
+        <v>6</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="H60" s="11">
+        <v>2825.3973000000001</v>
+      </c>
+      <c r="I60" s="11">
+        <v>203.5044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="11">
+        <v>6</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>9.3415999999999997</v>
+      </c>
+      <c r="G61" s="13">
+        <v>9.3415999999999997</v>
+      </c>
+      <c r="H61" s="11">
+        <v>86161.642200000002</v>
+      </c>
+      <c r="I61" s="11">
+        <v>6606.9654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -14804,10 +16598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16670,6 +18464,286 @@
         <v>7844.9367000000002</v>
       </c>
     </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="14">
+        <v>6</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E54" s="16">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F54" s="14">
+        <v>153698.52559999999</v>
+      </c>
+      <c r="G54" s="14">
+        <v>11600.994199999999</v>
+      </c>
+      <c r="H54" s="14">
+        <v>210858.1477</v>
+      </c>
+      <c r="I54" s="14">
+        <v>5690873</v>
+      </c>
+      <c r="J54" s="17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K54" s="14">
+        <v>317925.44569999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="14">
+        <v>6</v>
+      </c>
+      <c r="D55" s="15">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E55" s="16">
+        <v>18.5382</v>
+      </c>
+      <c r="F55" s="14">
+        <v>292802.49280000001</v>
+      </c>
+      <c r="G55" s="14">
+        <v>134313.01459999999</v>
+      </c>
+      <c r="H55" s="14">
+        <v>198496.49739999999</v>
+      </c>
+      <c r="I55" s="14">
+        <v>5301006</v>
+      </c>
+      <c r="J55" s="17">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="K55" s="14">
+        <v>285949.29570000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="14">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F56" s="14">
+        <v>160.19540000000001</v>
+      </c>
+      <c r="G56" s="14">
+        <v>15.6008</v>
+      </c>
+      <c r="H56" s="14">
+        <v>513.98919999999998</v>
+      </c>
+      <c r="I56" s="14">
+        <v>30</v>
+      </c>
+      <c r="J56" s="17">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="K56" s="14">
+        <v>520.82259999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="14">
+        <v>6</v>
+      </c>
+      <c r="D57" s="15">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E57" s="16">
+        <v>6.7305999999999999</v>
+      </c>
+      <c r="F57" s="14">
+        <v>54338.266000000003</v>
+      </c>
+      <c r="G57" s="14">
+        <v>2312.7359999999999</v>
+      </c>
+      <c r="H57" s="14">
+        <v>513.98919999999998</v>
+      </c>
+      <c r="I57" s="14">
+        <v>13548</v>
+      </c>
+      <c r="J57" s="17">
+        <v>4.0106999999999999</v>
+      </c>
+      <c r="K57" s="14">
+        <v>2012.931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="14">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>50713.789199999999</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0</v>
+      </c>
+      <c r="K58" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="14">
+        <v>6</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E59" s="16">
+        <v>9.7477999999999998</v>
+      </c>
+      <c r="F59" s="14">
+        <v>640399.71569999994</v>
+      </c>
+      <c r="G59" s="14">
+        <v>66623.595499999996</v>
+      </c>
+      <c r="H59" s="14">
+        <v>50713.789199999999</v>
+      </c>
+      <c r="I59" s="14">
+        <v>1346418</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="K59" s="14">
+        <v>138125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="14">
+        <v>6</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="F60" s="14">
+        <v>2825.3973000000001</v>
+      </c>
+      <c r="G60" s="14">
+        <v>203.5044</v>
+      </c>
+      <c r="H60" s="14">
+        <v>2853.6408999999999</v>
+      </c>
+      <c r="I60" s="14">
+        <v>1935</v>
+      </c>
+      <c r="J60" s="17">
+        <v>1.4599</v>
+      </c>
+      <c r="K60" s="14">
+        <v>2900.2719000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="14">
+        <v>6</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16">
+        <v>9.3415999999999997</v>
+      </c>
+      <c r="F61" s="14">
+        <v>86161.642200000002</v>
+      </c>
+      <c r="G61" s="14">
+        <v>6606.9654</v>
+      </c>
+      <c r="H61" s="14">
+        <v>2853.6408999999999</v>
+      </c>
+      <c r="I61" s="14">
+        <v>72122</v>
+      </c>
+      <c r="J61" s="17">
+        <v>1.1946000000000001</v>
+      </c>
+      <c r="K61" s="14">
+        <v>7720.4967999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -16677,10 +18751,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17195,6 +19269,56 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20">
+        <v>87.661699999999996</v>
+      </c>
+      <c r="D11" s="20">
+        <v>15.748900000000001</v>
+      </c>
+      <c r="E11" s="18">
+        <v>7.3067000000000002</v>
+      </c>
+      <c r="F11" s="20">
+        <v>14.9124</v>
+      </c>
+      <c r="G11" s="20">
+        <v>5.423</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="J11" s="19">
+        <v>6.08E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.1242</v>
+      </c>
+      <c r="L11" s="19">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>14688.992099999999</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0.1178</v>
+      </c>
+      <c r="P11" s="19">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -17202,10 +19326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17340,6 +19464,20 @@
         <v>10930.527400000001</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="D10" s="21">
+        <v>10908.365900000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -17347,10 +19485,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18605,6 +20743,156 @@
         <v>129196.67479999999</v>
       </c>
     </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="23">
+        <v>6</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1.0083258922162199</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="G26" s="23">
+        <v>51857.989500000003</v>
+      </c>
+      <c r="H26" s="23">
+        <v>28311.1116</v>
+      </c>
+      <c r="I26" s="25">
+        <v>7.2215999999999996</v>
+      </c>
+      <c r="J26" s="25">
+        <v>6.3914</v>
+      </c>
+      <c r="K26" s="25">
+        <v>148.20009999999999</v>
+      </c>
+      <c r="L26" s="25">
+        <v>10.778600000000001</v>
+      </c>
+      <c r="M26" s="24">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O26" s="27">
+        <v>1.0112000000000001</v>
+      </c>
+      <c r="P26" s="23">
+        <v>83583.443400000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="23">
+        <v>6</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1.0176610626175899</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G27" s="23">
+        <v>19238.4951</v>
+      </c>
+      <c r="H27" s="23">
+        <v>9675.0910999999996</v>
+      </c>
+      <c r="I27" s="25">
+        <v>2.8609</v>
+      </c>
+      <c r="J27" s="25">
+        <v>5.6760999999999999</v>
+      </c>
+      <c r="K27" s="25">
+        <v>26.084499999999998</v>
+      </c>
+      <c r="L27" s="25">
+        <v>10.6548</v>
+      </c>
+      <c r="M27" s="24">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="N27" s="24">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="O27" s="27">
+        <v>1.3205</v>
+      </c>
+      <c r="P27" s="23">
+        <v>19612.4771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="23">
+        <v>6</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.99962257475472804</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="G28" s="23">
+        <v>83295.985000000001</v>
+      </c>
+      <c r="H28" s="23">
+        <v>44902.161699999997</v>
+      </c>
+      <c r="I28" s="25">
+        <v>9.9062000000000001</v>
+      </c>
+      <c r="J28" s="25">
+        <v>6.5743999999999998</v>
+      </c>
+      <c r="K28" s="25">
+        <v>233.0171</v>
+      </c>
+      <c r="L28" s="25">
+        <v>9.9766999999999992</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0.8548</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="P28" s="23">
+        <v>129196.67479999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -18612,10 +20900,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="S110" sqref="S110"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24307,6 +26595,711 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="28">
+        <v>6</v>
+      </c>
+      <c r="D122" s="28">
+        <v>30461.414799999999</v>
+      </c>
+      <c r="E122" s="28">
+        <v>7371.6079</v>
+      </c>
+      <c r="F122" s="31">
+        <v>0.2419982141</v>
+      </c>
+      <c r="G122" s="28">
+        <v>3798.3795</v>
+      </c>
+      <c r="H122" s="30">
+        <v>0.1246947831</v>
+      </c>
+      <c r="I122" s="29">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="J122" s="29">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="K122" s="29">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="L122" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M122" s="29">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="N122" s="31">
+        <v>1.2741</v>
+      </c>
+      <c r="O122" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="28">
+        <v>6</v>
+      </c>
+      <c r="D123" s="28">
+        <v>2047.0429999999999</v>
+      </c>
+      <c r="E123" s="28">
+        <v>722.43020000000001</v>
+      </c>
+      <c r="F123" s="31">
+        <v>0.35291406219999999</v>
+      </c>
+      <c r="G123" s="28">
+        <v>302.05779999999999</v>
+      </c>
+      <c r="H123" s="30">
+        <v>0.14755815420000001</v>
+      </c>
+      <c r="I123" s="29">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="J123" s="29">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K123" s="29">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="L123" s="29">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M123" s="29">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N123" s="31">
+        <v>2.3245</v>
+      </c>
+      <c r="O123" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="28">
+        <v>6</v>
+      </c>
+      <c r="D124" s="28">
+        <v>5074.2245000000003</v>
+      </c>
+      <c r="E124" s="28">
+        <v>1432.6121000000001</v>
+      </c>
+      <c r="F124" s="31">
+        <v>0.28233124980000002</v>
+      </c>
+      <c r="G124" s="28">
+        <v>650.09159999999997</v>
+      </c>
+      <c r="H124" s="30">
+        <v>0.12811645520000001</v>
+      </c>
+      <c r="I124" s="29">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="J124" s="29">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="K124" s="29">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="L124" s="29">
+        <v>1.67E-2</v>
+      </c>
+      <c r="M124" s="29">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N124" s="31">
+        <v>1.6533</v>
+      </c>
+      <c r="O124" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="28">
+        <v>6</v>
+      </c>
+      <c r="D125" s="28">
+        <v>64771.479500000001</v>
+      </c>
+      <c r="E125" s="28">
+        <v>32655.3799</v>
+      </c>
+      <c r="F125" s="31">
+        <v>0.50416294610000001</v>
+      </c>
+      <c r="G125" s="28">
+        <v>19026.009900000001</v>
+      </c>
+      <c r="H125" s="30">
+        <v>0.29374054830000002</v>
+      </c>
+      <c r="I125" s="29">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="J125" s="29">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="K125" s="29">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="L125" s="29">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M125" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="N125" s="31">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="O125" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="28">
+        <v>6</v>
+      </c>
+      <c r="D126" s="28">
+        <v>2440.9729000000002</v>
+      </c>
+      <c r="E126" s="28">
+        <v>1279.874</v>
+      </c>
+      <c r="F126" s="31">
+        <v>0.52432946390000001</v>
+      </c>
+      <c r="G126" s="28">
+        <v>450.59019999999998</v>
+      </c>
+      <c r="H126" s="30">
+        <v>0.18459453209999999</v>
+      </c>
+      <c r="I126" s="29">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="J126" s="29">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="K126" s="29">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="L126" s="29">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="M126" s="29">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N126" s="31">
+        <v>1.4559</v>
+      </c>
+      <c r="O126" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="28">
+        <v>6</v>
+      </c>
+      <c r="D127" s="28">
+        <v>13877.929</v>
+      </c>
+      <c r="E127" s="28">
+        <v>8396.0851000000002</v>
+      </c>
+      <c r="F127" s="31">
+        <v>0.60499553530000005</v>
+      </c>
+      <c r="G127" s="28">
+        <v>4083.9823999999999</v>
+      </c>
+      <c r="H127" s="30">
+        <v>0.29427895250000002</v>
+      </c>
+      <c r="I127" s="29">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="J127" s="29">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K127" s="29">
+        <v>0.9728</v>
+      </c>
+      <c r="L127" s="29">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="M127" s="29">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="N127" s="31">
+        <v>1.0705</v>
+      </c>
+      <c r="O127" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="28">
+        <v>6</v>
+      </c>
+      <c r="D128" s="28">
+        <v>60566.123599999999</v>
+      </c>
+      <c r="E128" s="28">
+        <v>14792.5885</v>
+      </c>
+      <c r="F128" s="31">
+        <v>0.244238655</v>
+      </c>
+      <c r="G128" s="28">
+        <v>7687.9744000000001</v>
+      </c>
+      <c r="H128" s="30">
+        <v>0.12693522400000001</v>
+      </c>
+      <c r="I128" s="29">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="J128" s="29">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K128" s="29">
+        <v>0.9758</v>
+      </c>
+      <c r="L128" s="29">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="M128" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="N128" s="31">
+        <v>1.2096</v>
+      </c>
+      <c r="O128" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="28">
+        <v>6</v>
+      </c>
+      <c r="D129" s="28">
+        <v>4180.8523999999998</v>
+      </c>
+      <c r="E129" s="28">
+        <v>1489.1416999999999</v>
+      </c>
+      <c r="F129" s="31">
+        <v>0.35618137189999999</v>
+      </c>
+      <c r="G129" s="28">
+        <v>630.57899999999995</v>
+      </c>
+      <c r="H129" s="30">
+        <v>0.1508254638</v>
+      </c>
+      <c r="I129" s="29">
+        <v>0.8175</v>
+      </c>
+      <c r="J129" s="29">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="K129" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="L129" s="29">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="M129" s="29">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N129" s="31">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O129" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="28">
+        <v>6</v>
+      </c>
+      <c r="D130" s="28">
+        <v>10376.612300000001</v>
+      </c>
+      <c r="E130" s="28">
+        <v>2956.7647999999999</v>
+      </c>
+      <c r="F130" s="31">
+        <v>0.28494509750000002</v>
+      </c>
+      <c r="G130" s="28">
+        <v>1356.5376000000001</v>
+      </c>
+      <c r="H130" s="30">
+        <v>0.13073030299999999</v>
+      </c>
+      <c r="I130" s="29">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="J130" s="29">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="K130" s="29">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="L130" s="29">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="M130" s="29">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N130" s="31">
+        <v>1.5888</v>
+      </c>
+      <c r="O130" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="28">
+        <v>6</v>
+      </c>
+      <c r="D131" s="28">
+        <v>61414.505599999997</v>
+      </c>
+      <c r="E131" s="28">
+        <v>14733.918299999999</v>
+      </c>
+      <c r="F131" s="31">
+        <v>0.2399094179</v>
+      </c>
+      <c r="G131" s="28">
+        <v>7529.7860000000001</v>
+      </c>
+      <c r="H131" s="30">
+        <v>0.12260598690000001</v>
+      </c>
+      <c r="I131" s="29">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="J131" s="29">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K131" s="29">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L131" s="29">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="M131" s="29">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="N131" s="31">
+        <v>1.2154</v>
+      </c>
+      <c r="O131" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="28">
+        <v>6</v>
+      </c>
+      <c r="D132" s="28">
+        <v>4126.2218000000003</v>
+      </c>
+      <c r="E132" s="28">
+        <v>1443.6324999999999</v>
+      </c>
+      <c r="F132" s="31">
+        <v>0.34986790109999999</v>
+      </c>
+      <c r="G132" s="28">
+        <v>596.2885</v>
+      </c>
+      <c r="H132" s="30">
+        <v>0.14451199300000001</v>
+      </c>
+      <c r="I132" s="29">
+        <v>0.8327</v>
+      </c>
+      <c r="J132" s="29">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="K132" s="29">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="L132" s="29">
+        <v>3.39E-2</v>
+      </c>
+      <c r="M132" s="29">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N132" s="31">
+        <v>2.2658</v>
+      </c>
+      <c r="O132" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="28">
+        <v>6</v>
+      </c>
+      <c r="D133" s="28">
+        <v>10395.893700000001</v>
+      </c>
+      <c r="E133" s="28">
+        <v>2909.7516000000001</v>
+      </c>
+      <c r="F133" s="31">
+        <v>0.27989432089999999</v>
+      </c>
+      <c r="G133" s="28">
+        <v>1306.5509999999999</v>
+      </c>
+      <c r="H133" s="30">
+        <v>0.12567952639999999</v>
+      </c>
+      <c r="I133" s="29">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="J133" s="29">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="K133" s="29">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="L133" s="29">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M133" s="29">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N133" s="31">
+        <v>1.5946</v>
+      </c>
+      <c r="O133" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="28">
+        <v>6</v>
+      </c>
+      <c r="D134" s="28">
+        <v>98650.524399999995</v>
+      </c>
+      <c r="E134" s="28">
+        <v>49306.645600000003</v>
+      </c>
+      <c r="F134" s="31">
+        <v>0.49981128730000002</v>
+      </c>
+      <c r="G134" s="28">
+        <v>28548.365699999998</v>
+      </c>
+      <c r="H134" s="30">
+        <v>0.28938888959999998</v>
+      </c>
+      <c r="I134" s="29">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="J134" s="29">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="K134" s="29">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="L134" s="29">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="M134" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="N134" s="31">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="O134" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="28">
+        <v>6</v>
+      </c>
+      <c r="D135" s="28">
+        <v>3701.6291000000001</v>
+      </c>
+      <c r="E135" s="28">
+        <v>1924.1206</v>
+      </c>
+      <c r="F135" s="31">
+        <v>0.51980373879999997</v>
+      </c>
+      <c r="G135" s="28">
+        <v>666.54790000000003</v>
+      </c>
+      <c r="H135" s="30">
+        <v>0.180068807</v>
+      </c>
+      <c r="I135" s="29">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J135" s="29">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="K135" s="29">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="L135" s="29">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="M135" s="29">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="N135" s="31">
+        <v>1.4012</v>
+      </c>
+      <c r="O135" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="28">
+        <v>6</v>
+      </c>
+      <c r="D136" s="28">
+        <v>21638.0272</v>
+      </c>
+      <c r="E136" s="28">
+        <v>12977.9162</v>
+      </c>
+      <c r="F136" s="31">
+        <v>0.5997735448</v>
+      </c>
+      <c r="G136" s="28">
+        <v>6254.6224000000002</v>
+      </c>
+      <c r="H136" s="30">
+        <v>0.28905696199999997</v>
+      </c>
+      <c r="I136" s="29">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="J136" s="29">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="K136" s="29">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="L136" s="29">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="M136" s="29">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="N136" s="31">
+        <v>1.0159</v>
+      </c>
+      <c r="O136" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -24314,10 +27307,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27948,6 +30941,450 @@
         <v>5643.5734000000002</v>
       </c>
     </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="32">
+        <v>6</v>
+      </c>
+      <c r="C50" s="32">
+        <v>152442.0441</v>
+      </c>
+      <c r="D50" s="32">
+        <v>36898.114800000003</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0.24204683869999999</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0.1247434077</v>
+      </c>
+      <c r="G50" s="32">
+        <v>19016.14</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I50" s="33">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="J50" s="33">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="K50" s="34">
+        <v>5.2531999999999996</v>
+      </c>
+      <c r="L50" s="33">
+        <v>2E-3</v>
+      </c>
+      <c r="M50" s="32">
+        <v>36.894300000000001</v>
+      </c>
+      <c r="N50" s="34">
+        <v>1.9160999999999999</v>
+      </c>
+      <c r="O50" s="34">
+        <v>34264.319900000002</v>
+      </c>
+      <c r="P50" s="32">
+        <v>5.5476000000000001</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="R50" s="33">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="S50" s="32">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="T50" s="32">
+        <v>3707.0118000000002</v>
+      </c>
+      <c r="U50" s="33">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="V50" s="32">
+        <v>1131.8825999999999</v>
+      </c>
+      <c r="W50" s="36">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="X50" s="32">
+        <v>4174.5117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="32">
+        <v>6</v>
+      </c>
+      <c r="C51" s="32">
+        <v>10354.1173</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3655.2046</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0.35301943120000001</v>
+      </c>
+      <c r="F51" s="35">
+        <v>0.14766352320000001</v>
+      </c>
+      <c r="G51" s="32">
+        <v>1528.9254000000001</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0.9708</v>
+      </c>
+      <c r="I51" s="33">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="J51" s="33">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="K51" s="34">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="L51" s="33">
+        <v>0.1479</v>
+      </c>
+      <c r="M51" s="32">
+        <v>314.4889</v>
+      </c>
+      <c r="N51" s="34">
+        <v>3.5568</v>
+      </c>
+      <c r="O51" s="34">
+        <v>7562.8953000000001</v>
+      </c>
+      <c r="P51" s="32">
+        <v>8.0829000000000004</v>
+      </c>
+      <c r="Q51" s="33">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="R51" s="33">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="S51" s="32">
+        <v>12.677899999999999</v>
+      </c>
+      <c r="T51" s="32">
+        <v>2672.9232999999999</v>
+      </c>
+      <c r="U51" s="33">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="V51" s="32">
+        <v>1355.9419</v>
+      </c>
+      <c r="W51" s="36">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="X51" s="32">
+        <v>4779.5533999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="32">
+        <v>6</v>
+      </c>
+      <c r="C52" s="32">
+        <v>25846.730599999999</v>
+      </c>
+      <c r="D52" s="32">
+        <v>7299.1284999999998</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0.28240045889999998</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0.12818566440000001</v>
+      </c>
+      <c r="G52" s="32">
+        <v>3313.1803</v>
+      </c>
+      <c r="H52" s="33">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="I52" s="33">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="J52" s="33">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="K52" s="34">
+        <v>3.2113</v>
+      </c>
+      <c r="L52" s="33">
+        <v>6.59E-2</v>
+      </c>
+      <c r="M52" s="32">
+        <v>262.78109999999998</v>
+      </c>
+      <c r="N52" s="34">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="O52" s="34">
+        <v>12221.2369</v>
+      </c>
+      <c r="P52" s="32">
+        <v>7.0717999999999996</v>
+      </c>
+      <c r="Q52" s="33">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="R52" s="33">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="S52" s="32">
+        <v>17.203700000000001</v>
+      </c>
+      <c r="T52" s="32">
+        <v>2728.4144999999999</v>
+      </c>
+      <c r="U52" s="33">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="V52" s="32">
+        <v>1170.1007999999999</v>
+      </c>
+      <c r="W52" s="36">
+        <v>1.6037999999999999</v>
+      </c>
+      <c r="X52" s="32">
+        <v>4151.0445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="32">
+        <v>6</v>
+      </c>
+      <c r="C53" s="32">
+        <v>163422.00399999999</v>
+      </c>
+      <c r="D53" s="32">
+        <v>81962.025500000003</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0.50153604510000005</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0.29111364740000001</v>
+      </c>
+      <c r="G53" s="32">
+        <v>47574.375599999999</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="I53" s="33">
+        <v>0.9637</v>
+      </c>
+      <c r="J53" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="K53" s="34">
+        <v>3.3519000000000001</v>
+      </c>
+      <c r="L53" s="33">
+        <v>6.3E-3</v>
+      </c>
+      <c r="M53" s="32">
+        <v>218.10740000000001</v>
+      </c>
+      <c r="N53" s="34">
+        <v>1.9523999999999999</v>
+      </c>
+      <c r="O53" s="34">
+        <v>67138.640700000004</v>
+      </c>
+      <c r="P53" s="32">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="Q53" s="33">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="R53" s="33">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="S53" s="32">
+        <v>30.229800000000001</v>
+      </c>
+      <c r="T53" s="32">
+        <v>1961.0803000000001</v>
+      </c>
+      <c r="U53" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="V53" s="32">
+        <v>991.84119999999996</v>
+      </c>
+      <c r="W53" s="36">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="X53" s="32">
+        <v>2246.5091000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="32">
+        <v>6</v>
+      </c>
+      <c r="C54" s="32">
+        <v>6142.6019999999999</v>
+      </c>
+      <c r="D54" s="32">
+        <v>3203.9947000000002</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0.5216021904</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0.18186725870000001</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1117.1382000000001</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="I54" s="33">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J54" s="33">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="K54" s="34">
+        <v>1.7618</v>
+      </c>
+      <c r="L54" s="33">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="M54" s="32">
+        <v>202.01519999999999</v>
+      </c>
+      <c r="N54" s="34">
+        <v>2.9977999999999998</v>
+      </c>
+      <c r="O54" s="34">
+        <v>6256.02</v>
+      </c>
+      <c r="P54" s="32">
+        <v>7.1723999999999997</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="R54" s="33">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="S54" s="32">
+        <v>15.433999999999999</v>
+      </c>
+      <c r="T54" s="32">
+        <v>1614.9940999999999</v>
+      </c>
+      <c r="U54" s="33">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="V54" s="32">
+        <v>721.85680000000002</v>
+      </c>
+      <c r="W54" s="36">
+        <v>1.423</v>
+      </c>
+      <c r="X54" s="32">
+        <v>2656.5952000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="32">
+        <v>6</v>
+      </c>
+      <c r="C55" s="32">
+        <v>35515.956200000001</v>
+      </c>
+      <c r="D55" s="32">
+        <v>21374.0013</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0.60181404770000002</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0.29109746489999999</v>
+      </c>
+      <c r="G55" s="32">
+        <v>10338.604799999999</v>
+      </c>
+      <c r="H55" s="33">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="I55" s="33">
+        <v>0.9647</v>
+      </c>
+      <c r="J55" s="33">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="K55" s="34">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="L55" s="33">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="M55" s="32">
+        <v>516.47140000000002</v>
+      </c>
+      <c r="N55" s="34">
+        <v>2.7355</v>
+      </c>
+      <c r="O55" s="34">
+        <v>30187.6142</v>
+      </c>
+      <c r="P55" s="32">
+        <v>6.5971000000000002</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="R55" s="33">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="S55" s="32">
+        <v>20.888100000000001</v>
+      </c>
+      <c r="T55" s="32">
+        <v>2004.5678</v>
+      </c>
+      <c r="U55" s="33">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="V55" s="32">
+        <v>984.5335</v>
+      </c>
+      <c r="W55" s="36">
+        <v>1.0371999999999999</v>
+      </c>
+      <c r="X55" s="32">
+        <v>5408.5902999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -27955,10 +31392,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28782,6 +32219,103 @@
         <v>0.18870000000000001</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38">
+        <v>6</v>
+      </c>
+      <c r="D26" s="38">
+        <v>600</v>
+      </c>
+      <c r="E26" s="38">
+        <v>418.89</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="G26" s="39">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H26" s="40">
+        <v>2.351</v>
+      </c>
+      <c r="I26" s="40">
+        <v>156.2039</v>
+      </c>
+      <c r="J26" s="38">
+        <v>52.037399999999998</v>
+      </c>
+      <c r="K26" s="40">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38">
+        <v>6</v>
+      </c>
+      <c r="D27" s="38">
+        <v>4</v>
+      </c>
+      <c r="E27" s="38">
+        <v>8.3079000000000001</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.376</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="38">
+        <v>6</v>
+      </c>
+      <c r="D28" s="38">
+        <v>900</v>
+      </c>
+      <c r="E28" s="38">
+        <v>868.91489999999999</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0.1075</v>
+      </c>
+      <c r="H28" s="40">
+        <v>18.641999999999999</v>
+      </c>
+      <c r="I28" s="40">
+        <v>407.30189999999999</v>
+      </c>
+      <c r="J28" s="38">
+        <v>131.72210000000001</v>
+      </c>
+      <c r="K28" s="40">
+        <v>0.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
